--- a/数据总表以及说明.xlsx
+++ b/数据总表以及说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="技能表" sheetId="2" r:id="rId3"/>
     <sheet name="状态表" sheetId="6" r:id="rId4"/>
     <sheet name="状态互斥表" sheetId="7" r:id="rId5"/>
+    <sheet name="属性表" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">角色表!$A$2:$U$122</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="411">
   <si>
     <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,22 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:我方，2：敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有技能时进战斗默认触发的BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能默认改变的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7,npcTID(NPC表格ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|伤害攻击力系数|伤害生命百分比系数|伤害的额外条件(参考判断条件类型表)|是否为贯通伤害（1,贯通 0非贯通）|是否为必中伤害（1,必中，0 非必中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2|治疗攻击力系数|治疗生命百分比系数|治疗的额外条件(参考判断条件类型表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施加Buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,26 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进场触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击计算伤害前触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表） - 该类触发器的效果只允许为 5，5类型的技能效果也只会被4，5类型触发器所引发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被击计算伤害前触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,18 +170,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击后触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被击后触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7|自身条件（参考判断条件类型表）|攻击者条件（参考判断条件类型表）|是否是怒气技能（0为都可以，1为必须要普攻，2为必须要怒攻）|是否是远程技能（0为都可以，1为近战，2为远程）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,26 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|每场战斗触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14|每回合触发次数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对方死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15|每回合触发次数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,31 +250,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普攻杀死对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒攻杀死对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量小于一定量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21|小于的血量百分比|每次战斗触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,14 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，默认位置
-2，后排
-3，血最少 
-4，随机
-5，强制自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|10000|0|0|0|0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,10 +673,6 @@
   </si>
   <si>
     <t>1|12000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能触发条件（参考触发器类型）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1039,171 +944,653 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，伤害|状态伤害类型(技能参数为伤害技能系数）
+    <t>单次免疫增益驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次免疫减益驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲重拳-防御上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：近战，2：远程（非伤害技能无意义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑之舞-格挡上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|10000|0|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率|改变发生的额外条件（参考判断条件类型表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|-30|30|10000|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|-20|0|5000|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连携技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,标签编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器效果说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|伤害攻击力系数|伤害生命百分比系数|该伤害的自身额外条件(参考判断条件类型表)|该伤害的目标额外条件(参考判断条件类型表)|是否为贯通伤害（1,贯通 0非贯通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|状态ID|BUFF触发率（万分比）|触发状态的自身额外条件（参考判断条件类型表）|触发状态的目标额外条件（参考判断条件类型表）|状态的导入参数（与状态相关）|状态持续回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|治疗攻击力系数|治疗生命百分比系数|治疗的自身额外条件(参考判断条件类型表)|治疗的目标额外条件(参考判断条件类型表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|101|10000|0|0|5000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|123|10000|0|0|2000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|104|10000|0|0|5000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|124|10000|0|0|3000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|101|10000|0|0|3000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|302|10000|0|0|0|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|1|10000|0|0|500|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|2|10000|0|0|1000|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|3|10000|0|0|800|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillMelee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertainHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2</t>
+  </si>
+  <si>
+    <t>Effect3</t>
+  </si>
+  <si>
+    <t>ComboSKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能默认改变的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标效果1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标效果2</t>
+  </si>
+  <si>
+    <t>技能目标效果3</t>
+  </si>
+  <si>
+    <t>1，主动，2必杀，3被动，4连携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:我方，2：敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1不判断闪避,不消耗闪避
+0，非必中
+1必中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用完该技能后自动追加后面的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR_HP_MAX             = 1  // 最大血量</t>
+  </si>
+  <si>
+    <t>ATTR_HP                 = 2  // 当前血量</t>
+  </si>
+  <si>
+    <t>ATTR_MP                 = 3  // 气势</t>
+  </si>
+  <si>
+    <t>ATTR_ATTACK             = 4  // 攻击</t>
+  </si>
+  <si>
+    <t>ATTR_DEFENSE            = 5  // 防御</t>
+  </si>
+  <si>
+    <t>ATTR_DODGE_COUNT        = 6  // 闪避次数</t>
+  </si>
+  <si>
+    <t>ATTR_INJURED_MAX        = 7  // 受伤上限</t>
+  </si>
+  <si>
+    <t>ATTR_SHIELD             = 8  // 护盾</t>
+  </si>
+  <si>
+    <t>ATTR_CRITICAL           = 9  // 暴击率</t>
+  </si>
+  <si>
+    <t>ATTR_CRITICAL_MULTI     = 10 // 暴击伤害倍率</t>
+  </si>
+  <si>
+    <t>ATTR_ANTI_CRITICAL      = 11 // 抗暴率</t>
+  </si>
+  <si>
+    <t>ATTR_BLOCK_RATE         = 12 // 格挡率</t>
+  </si>
+  <si>
+    <t>ATTR_BLOCK_DEFENSE_RATE = 13 // 格挡减伤率</t>
+  </si>
+  <si>
+    <t>ATTR_BREAK_BLOCK_RATE   = 14 // 破格率</t>
+  </si>
+  <si>
+    <t>ATTR_TOTAL_DAMAGE_ADD    = 15 // 总增伤</t>
+  </si>
+  <si>
+    <t>ATTR_CLOSE_DAMAGE_ADD    = 16 // 近战增伤</t>
+  </si>
+  <si>
+    <t>ATTR_REMOTE_DAMAGE_ADD   = 17 // 远程增伤</t>
+  </si>
+  <si>
+    <t>ATTR_NORMAL_DAMAGE_ADD   = 18 // 普攻增伤</t>
+  </si>
+  <si>
+    <t>ATTR_RAGE_DAMAGE_ADD     = 19 // 怒气增伤</t>
+  </si>
+  <si>
+    <t>ATTR_TOTAL_DAMAGE_SUB    = 20 // 总减伤</t>
+  </si>
+  <si>
+    <t>ATTR_CLOSE_DAMAGE_SUB    = 21 // 近战减伤</t>
+  </si>
+  <si>
+    <t>ATTR_REMOTE_DAMAGE_SUB   = 22 // 远程减伤</t>
+  </si>
+  <si>
+    <t>ATTR_NORMAL_DAMAGE_SUB   = 23 // 普攻减伤</t>
+  </si>
+  <si>
+    <t>ATTR_RAGE_DAMAGE_SUB     = 24 // 怒气减伤</t>
+  </si>
+  <si>
+    <t>ATTR_CLOSE_VAMPIRE       = 25 // 近战吸血</t>
+  </si>
+  <si>
+    <t>ATTR_REMOTE_VAMPIRE      = 26 // 远程吸血</t>
+  </si>
+  <si>
+    <t>ATTR_CURE_RATE_CORRECT   = 27 // 治疗率修正</t>
+  </si>
+  <si>
+    <t>ATTR_CURED_RATE_CORRECT  = 28 // 被治疗率修正</t>
+  </si>
+  <si>
+    <t>ATTR_CLOSE_REFLECT       = 29 // 近战反击系数</t>
+  </si>
+  <si>
+    <t>ATTR_REMOTE_REFLECT      = 30 // 远程反击系数</t>
+  </si>
+  <si>
+    <t>ATTR_ARMOR_ADD           = 31 // 护甲增益</t>
+  </si>
+  <si>
+    <t>ATTR_BREAK_ARMOR         = 32 // 破甲</t>
+  </si>
+  <si>
+    <t>ATTR_POISON_INJURED_RATE = 33 // 毒气受伤率</t>
+  </si>
+  <si>
+    <t>ATTR_BURN_INJURED_RATE   = 34 // 点燃受伤率</t>
+  </si>
+  <si>
+    <t>ATTR_BLEED_INJURED_RATE  = 35 // 流血受伤率</t>
+  </si>
+  <si>
+    <t>ATTR_COUNT_MAX           = 40</t>
+  </si>
+  <si>
+    <t>ResistCountMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MutexType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResistMutexType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelMutexType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResistMutexID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelMutexID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥时的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在时抵抗这些类型的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时驱散这些类型状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在时抵抗特定ID的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时驱散这些ID状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，伤害|状态伤害类型(技能参数为伤害技能系数）
 2，禁止普攻(技能参数无效）
 3，禁止怒攻(技能参数无效）
 4，禁止行动(技能参数无效）
 5，状态下持续改变属性|属性编号(技能参数为改变的属性量）
 6，闪避类状态|闪避次数
-7，免疫|免疫次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次免疫增益驱散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次免疫减益驱散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能目标效果1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能目标效果1-2</t>
-  </si>
-  <si>
-    <t>技能目标效果1-3</t>
-  </si>
-  <si>
-    <t>1:普攻，2怒攻，3被动，4，连携</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲重拳-防御上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：近战，2：远程（非伤害技能无意义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑之舞-格挡上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|状态ID|BUFF触发率（万分比）|触发额外伤害的条件（参考判断条件类型表）|状态的导入参数（与状态相关）|状态持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|2|10000|0|1000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|104|10000|0|5000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|123|10000|0|2000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|101|10000|0|5000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|10000|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|124|10000|0|3000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|101|10000|0|3000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|302|10000|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率|改变发生的额外条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|-30|30|10000|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|-20|0|5000|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|1|10000|0|500|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|3|10000|0|800|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连携技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能连击次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器的效果，表示连续使用多少次该技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,标签编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填表格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器效果说明：</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为无限次
+大于0为有限次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次免疫增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次免疫负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封能免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射火焰（受击时让攻击者中点燃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,10000|32,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|1001|10000|0|0|0|50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|1003|10000|0|0|0|50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米合金（+免毒/流血+护甲穿透+护甲增益）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗进场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19|是否普攻杀死|每回合触发次数上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身死亡前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|每场战斗触发上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|触发次数上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放普攻后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何攻击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何被攻击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器绑定对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，大招命中者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，普攻命中者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，被攻击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，攻击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，触发格挡的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，触发暴击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，被暴击伤害的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，伤害被格挡的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，敌方目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，治疗者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，默认位置
+2，后排
+3，血最少 
+4，随机
+5，强制自身
+6，触发器的另一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|0|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表） - 该类触发器的效果只允许为 5，5类型的技能效果也只会被4，5类型触发器所引发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,6 +1680,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,31 +2027,31 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M1" s="3">
         <v>1</v>
@@ -1661,90 +2072,90 @@
         <v>0.1</v>
       </c>
       <c r="W1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="X1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Y1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AA1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AB1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AC1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="AD1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="63" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1770,7 +2181,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1859,7 +2270,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1947,7 +2358,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -2023,7 +2434,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -2099,7 +2510,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2175,7 +2586,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2241,7 +2652,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3">
         <v>11</v>
@@ -2307,7 +2718,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -2373,7 +2784,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
@@ -2439,7 +2850,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3">
         <v>12</v>
@@ -2505,7 +2916,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -2571,7 +2982,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -2637,7 +3048,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
@@ -2703,7 +3114,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
@@ -2769,7 +3180,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3">
         <v>21</v>
@@ -2835,7 +3246,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>21</v>
@@ -2901,7 +3312,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3">
         <v>22</v>
@@ -2967,7 +3378,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3">
         <v>22</v>
@@ -3033,7 +3444,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -3099,7 +3510,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3">
         <v>22</v>
@@ -3165,7 +3576,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
         <v>1001</v>
@@ -3231,7 +3642,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
         <v>1001</v>
@@ -3297,7 +3708,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3">
         <v>1002</v>
@@ -3363,7 +3774,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3">
         <v>1002</v>
@@ -3429,7 +3840,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3">
         <v>1002</v>
@@ -3495,7 +3906,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3">
         <v>1002</v>
@@ -3561,7 +3972,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3">
         <v>1011</v>
@@ -3627,7 +4038,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3">
         <v>1011</v>
@@ -3693,7 +4104,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3">
         <v>1011</v>
@@ -3759,7 +4170,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3">
         <v>1012</v>
@@ -3825,7 +4236,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3">
         <v>1012</v>
@@ -3891,7 +4302,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3">
         <v>1012</v>
@@ -3957,7 +4368,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3">
         <v>1012</v>
@@ -4023,7 +4434,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3">
         <v>1021</v>
@@ -4089,7 +4500,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3">
         <v>1021</v>
@@ -4155,7 +4566,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3">
         <v>1021</v>
@@ -4221,7 +4632,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3">
         <v>1022</v>
@@ -4287,7 +4698,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3">
         <v>1022</v>
@@ -4353,7 +4764,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3">
         <v>1022</v>
@@ -4419,7 +4830,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3">
         <v>1022</v>
@@ -4485,7 +4896,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3">
         <v>2001</v>
@@ -4551,7 +4962,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>2001</v>
@@ -4617,7 +5028,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3">
         <v>2002</v>
@@ -4683,7 +5094,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>2002</v>
@@ -4749,7 +5160,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3">
         <v>2002</v>
@@ -4815,7 +5226,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B48" s="3">
         <v>2002</v>
@@ -4881,7 +5292,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3">
         <v>2011</v>
@@ -4947,7 +5358,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3">
         <v>2011</v>
@@ -5013,7 +5424,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B51" s="3">
         <v>2011</v>
@@ -5079,7 +5490,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3">
         <v>2012</v>
@@ -5145,7 +5556,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3">
         <v>2012</v>
@@ -5211,7 +5622,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B54" s="3">
         <v>2012</v>
@@ -5277,7 +5688,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3">
         <v>2012</v>
@@ -5343,7 +5754,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3">
         <v>2021</v>
@@ -5409,7 +5820,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3">
         <v>2021</v>
@@ -5475,7 +5886,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>2021</v>
@@ -5541,7 +5952,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B59" s="3">
         <v>2022</v>
@@ -5607,7 +6018,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3">
         <v>2022</v>
@@ -5673,7 +6084,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B61" s="3">
         <v>2022</v>
@@ -5739,7 +6150,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3">
         <v>2022</v>
@@ -5805,7 +6216,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3">
         <v>3001</v>
@@ -5871,7 +6282,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3">
         <v>3001</v>
@@ -5937,7 +6348,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B65" s="3">
         <v>3002</v>
@@ -6003,7 +6414,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B66" s="3">
         <v>3002</v>
@@ -6069,7 +6480,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3">
         <v>3002</v>
@@ -6135,7 +6546,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B68" s="3">
         <v>3002</v>
@@ -6201,7 +6612,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3">
         <v>3011</v>
@@ -6267,7 +6678,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3">
         <v>3011</v>
@@ -6333,7 +6744,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3">
         <v>3011</v>
@@ -6399,7 +6810,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B72" s="3">
         <v>3012</v>
@@ -6465,7 +6876,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B73" s="3">
         <v>3012</v>
@@ -6531,7 +6942,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3">
         <v>3012</v>
@@ -6597,7 +7008,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B75" s="3">
         <v>3012</v>
@@ -6663,7 +7074,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
         <v>3021</v>
@@ -6729,7 +7140,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
         <v>3021</v>
@@ -6795,7 +7206,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>3021</v>
@@ -6861,7 +7272,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B79" s="3">
         <v>3022</v>
@@ -6927,7 +7338,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B80" s="3">
         <v>3022</v>
@@ -6993,7 +7404,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B81" s="3">
         <v>3022</v>
@@ -7059,7 +7470,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B82" s="3">
         <v>3022</v>
@@ -7125,7 +7536,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B83" s="3">
         <v>4001</v>
@@ -7191,7 +7602,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3">
         <v>4001</v>
@@ -7257,7 +7668,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B85" s="3">
         <v>4002</v>
@@ -7323,7 +7734,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B86" s="3">
         <v>4002</v>
@@ -7389,7 +7800,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3">
         <v>4002</v>
@@ -7455,7 +7866,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B88" s="3">
         <v>4002</v>
@@ -7521,7 +7932,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B89" s="3">
         <v>4011</v>
@@ -7587,7 +7998,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3">
         <v>4011</v>
@@ -7653,7 +8064,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B91" s="3">
         <v>4011</v>
@@ -7719,7 +8130,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
         <v>4012</v>
@@ -7785,7 +8196,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B93" s="3">
         <v>4012</v>
@@ -7851,7 +8262,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
         <v>4012</v>
@@ -7917,7 +8328,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B95" s="3">
         <v>4012</v>
@@ -7983,7 +8394,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B96" s="3">
         <v>4021</v>
@@ -8049,7 +8460,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B97" s="3">
         <v>4021</v>
@@ -8115,7 +8526,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B98" s="3">
         <v>4021</v>
@@ -8181,7 +8592,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>4022</v>
@@ -8247,7 +8658,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B100" s="3">
         <v>4022</v>
@@ -8313,7 +8724,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3">
         <v>4022</v>
@@ -8379,7 +8790,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B102" s="3">
         <v>4022</v>
@@ -8445,7 +8856,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3">
         <v>5001</v>
@@ -8511,7 +8922,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B104" s="3">
         <v>5001</v>
@@ -8577,7 +8988,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B105" s="3">
         <v>5002</v>
@@ -8643,7 +9054,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B106" s="3">
         <v>5002</v>
@@ -8709,7 +9120,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B107" s="3">
         <v>5002</v>
@@ -8775,7 +9186,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B108" s="3">
         <v>5002</v>
@@ -8841,7 +9252,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B109" s="3">
         <v>5011</v>
@@ -8907,7 +9318,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B110" s="3">
         <v>5011</v>
@@ -8973,7 +9384,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B111" s="3">
         <v>5011</v>
@@ -9039,7 +9450,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B112" s="3">
         <v>5012</v>
@@ -9105,7 +9516,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B113" s="3">
         <v>5012</v>
@@ -9171,7 +9582,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B114" s="3">
         <v>5012</v>
@@ -9237,7 +9648,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B115" s="3">
         <v>5012</v>
@@ -9303,7 +9714,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B116" s="3">
         <v>5021</v>
@@ -9369,7 +9780,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B117" s="3">
         <v>5021</v>
@@ -9435,7 +9846,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B118" s="3">
         <v>5021</v>
@@ -9501,7 +9912,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B119" s="3">
         <v>5022</v>
@@ -9567,7 +9978,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B120" s="3">
         <v>5022</v>
@@ -9633,7 +10044,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B121" s="3">
         <v>5022</v>
@@ -9699,7 +10110,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B122" s="3">
         <v>5022</v>
@@ -9778,32 +10189,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9811,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -9822,10 +10235,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9833,10 +10246,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9844,10 +10257,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9855,10 +10268,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9866,10 +10279,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9877,10 +10290,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9888,26 +10301,26 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9915,10 +10328,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9926,10 +10339,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9937,345 +10350,414 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>386</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C44" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C45" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48">
-        <v>22</v>
+      <c r="D48" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -10286,139 +10768,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="90">
-      <c r="A1"/>
-      <c r="C1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
+      <c r="L4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -10426,31 +10958,31 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3">
         <v>21</v>
@@ -10458,31 +10990,31 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3">
         <v>31</v>
@@ -10490,31 +11022,31 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3">
         <v>41</v>
@@ -10522,31 +11054,31 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3">
         <v>51</v>
@@ -10554,31 +11086,31 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B10" s="3">
         <v>10001</v>
@@ -10586,34 +11118,34 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>163</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3">
         <v>11001</v>
@@ -10621,34 +11153,34 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>268</v>
       </c>
       <c r="M11" t="s">
-        <v>283</v>
-      </c>
-      <c r="N11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3">
         <v>10021</v>
@@ -10656,34 +11188,34 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>183</v>
-      </c>
-      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12">
         <v>110021</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B13" s="3">
         <v>110021</v>
@@ -10691,31 +11223,31 @@
       <c r="C13" s="3">
         <v>4</v>
       </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>11001</v>
@@ -10723,31 +11255,31 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3">
         <v>11011</v>
@@ -10755,31 +11287,31 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K15" s="3">
-        <v>9</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3">
         <v>11021</v>
@@ -10787,11 +11319,14 @@
       <c r="C16" s="3">
         <v>2</v>
       </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -10800,21 +11335,18 @@
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>184</v>
-      </c>
-      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16">
         <v>111021</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3">
         <v>111021</v>
@@ -10822,6 +11354,9 @@
       <c r="C17" s="3">
         <v>4</v>
       </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
@@ -10829,24 +11364,21 @@
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>-1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B18" s="3">
         <v>12001</v>
@@ -10854,31 +11386,31 @@
       <c r="C18" s="3">
         <v>2</v>
       </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="3">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B19" s="3">
         <v>12011</v>
@@ -10886,34 +11418,34 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>183</v>
-      </c>
-      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19">
         <v>112011</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B20" s="3">
         <v>112011</v>
@@ -10921,6 +11453,9 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
@@ -10928,24 +11463,21 @@
         <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>-1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3">
         <v>12021</v>
@@ -10953,11 +11485,14 @@
       <c r="C21" s="3">
         <v>2</v>
       </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
       <c r="G21" s="3">
         <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -10966,18 +11501,15 @@
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B22" s="3">
         <v>13001</v>
@@ -10985,34 +11517,34 @@
       <c r="C22" s="3">
         <v>2</v>
       </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>271</v>
       </c>
       <c r="M22" t="s">
-        <v>285</v>
-      </c>
-      <c r="N22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3">
         <v>13011</v>
@@ -11020,31 +11552,31 @@
       <c r="C23" s="3">
         <v>2</v>
       </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
       <c r="G23" s="3">
         <v>2</v>
       </c>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3">
-        <v>9</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3">
         <v>13021</v>
@@ -11052,31 +11584,31 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B25" s="3">
         <v>14001</v>
@@ -11084,6 +11616,9 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
@@ -11097,18 +11632,15 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B26" s="3">
         <v>14011</v>
@@ -11116,6 +11648,9 @@
       <c r="C26" s="3">
         <v>2</v>
       </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
@@ -11123,27 +11658,24 @@
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>162</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B27" s="3">
         <v>14021</v>
@@ -11151,34 +11683,34 @@
       <c r="C27" s="3">
         <v>2</v>
       </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>161</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3">
         <v>15001</v>
@@ -11186,6 +11718,9 @@
       <c r="C28" s="3">
         <v>2</v>
       </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
@@ -11199,21 +11734,18 @@
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>160</v>
       </c>
       <c r="M28" t="s">
-        <v>182</v>
-      </c>
-      <c r="N28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B29" s="3">
         <v>15011</v>
@@ -11221,31 +11753,31 @@
       <c r="C29" s="3">
         <v>2</v>
       </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K29" s="3">
-        <v>9</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B30" s="3">
         <v>15021</v>
@@ -11253,29 +11785,102 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
-        <v>3</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>161</v>
       </c>
       <c r="M30" t="s">
-        <v>183</v>
-      </c>
-      <c r="N30" t="s">
-        <v>292</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>375</v>
+      </c>
+      <c r="M31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20002</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -11287,13 +11892,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11303,957 +11908,2066 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="168.75">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="15">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="15">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="9">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="15">
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="9">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="15">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="9">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="15">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B14" s="9">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="15">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="9">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="15">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="9">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="15">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="9">
+        <v>107</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="15">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="9">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="15">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="9">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="15">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="9">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="15">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="9">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="15">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="9">
+        <v>112</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="15">
+        <v>13</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="9">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="15">
+        <v>13</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="9">
+        <v>114</v>
+      </c>
+      <c r="C24" s="9">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="15">
+        <v>13</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="9">
+        <v>115</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="15">
+        <v>13</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="9">
+        <v>116</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="15">
+        <v>13</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="9">
+        <v>117</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="15">
+        <v>13</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="9">
+        <v>118</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="15">
+        <v>13</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="9">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="15">
+        <v>13</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="9">
+        <v>120</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="15">
+        <v>13</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B31" s="9">
+        <v>121</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="15">
+        <v>13</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="9">
+        <v>122</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15">
+        <v>13</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="9">
+        <v>123</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15">
+        <v>13</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="9">
+        <v>124</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15">
+        <v>13</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="9">
+        <v>125</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15">
+        <v>13</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="9">
+        <v>126</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="15">
+        <v>13</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="9">
+        <v>127</v>
+      </c>
+      <c r="C37" s="9">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="15">
+        <v>13</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="9">
         <v>201</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C38" s="9">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="15">
+        <v>3</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="9">
+        <v>202</v>
+      </c>
+      <c r="C39" s="9">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="9">
+        <v>203</v>
+      </c>
+      <c r="C40" s="9">
+        <v>5</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="15">
+        <v>3</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="9">
+        <v>204</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="15">
+        <v>3</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="9">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="216">
-      <c r="C3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7">
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="15">
+        <v>3</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="9">
+        <v>206</v>
+      </c>
+      <c r="C43" s="9">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="15">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="9">
+        <v>207</v>
+      </c>
+      <c r="C44" s="9">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="15">
+        <v>3</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="9">
+        <v>208</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="15">
+        <v>3</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="9">
+        <v>209</v>
+      </c>
+      <c r="C46" s="9">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="9">
+        <v>210</v>
+      </c>
+      <c r="C47" s="9">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="15">
+        <v>3</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="9">
+        <v>211</v>
+      </c>
+      <c r="C48" s="9">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="15">
+        <v>3</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="9">
+        <v>212</v>
+      </c>
+      <c r="C49" s="9">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="15">
+        <v>3</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="9">
+        <v>213</v>
+      </c>
+      <c r="C50" s="9">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="15">
+        <v>3</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="9">
+        <v>214</v>
+      </c>
+      <c r="C51" s="9">
+        <v>5</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="15">
+        <v>3</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="9">
+        <v>215</v>
+      </c>
+      <c r="C52" s="9">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="15">
+        <v>3</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="9">
+        <v>216</v>
+      </c>
+      <c r="C53" s="9">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="15">
+        <v>3</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="9">
+        <v>217</v>
+      </c>
+      <c r="C54" s="9">
+        <v>5</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="15">
+        <v>3</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="9">
+        <v>218</v>
+      </c>
+      <c r="C55" s="9">
+        <v>5</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="15">
+        <v>3</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="9">
+        <v>219</v>
+      </c>
+      <c r="C56" s="9">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="15">
+        <v>3</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="9">
+        <v>220</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="15">
+        <v>3</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="9">
+        <v>221</v>
+      </c>
+      <c r="C58" s="9">
+        <v>5</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="15">
+        <v>3</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="9">
+        <v>222</v>
+      </c>
+      <c r="C59" s="9">
+        <v>5</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="15">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="9">
+        <v>223</v>
+      </c>
+      <c r="C60" s="9">
+        <v>5</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="15">
+        <v>3</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="9">
+        <v>224</v>
+      </c>
+      <c r="C61" s="9">
+        <v>5</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="15">
+        <v>3</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="9">
+        <v>225</v>
+      </c>
+      <c r="C62" s="9">
+        <v>5</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="15">
+        <v>3</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="9">
+        <v>226</v>
+      </c>
+      <c r="C63" s="9">
+        <v>5</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="15">
+        <v>3</v>
+      </c>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="9">
+        <v>227</v>
+      </c>
+      <c r="C64" s="9">
+        <v>5</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="15">
+        <v>3</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="9">
+        <v>301</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="15">
+        <v>21</v>
+      </c>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="9">
+        <v>302</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="15">
+        <v>22</v>
+      </c>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="9">
+        <v>401</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="15">
+        <v>31</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="9">
+        <v>402</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="15">
+        <v>32</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="9">
+        <v>403</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11">
-        <v>101</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12">
-        <v>102</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13">
-        <v>103</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14">
-        <v>104</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16">
-        <v>106</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17">
-        <v>107</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18">
-        <v>108</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19">
-        <v>109</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20">
-        <v>110</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21">
-        <v>111</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22">
-        <v>112</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23">
-        <v>113</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24">
-        <v>114</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25">
-        <v>115</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26">
-        <v>116</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27">
-        <v>117</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28">
-        <v>118</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29">
-        <v>119</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30">
-        <v>120</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31">
-        <v>121</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32">
-        <v>122</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33">
-        <v>123</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34">
-        <v>124</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35">
-        <v>125</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36">
-        <v>126</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37">
-        <v>127</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38">
-        <v>201</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39">
-        <v>202</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40">
-        <v>203</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41">
-        <v>204</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42">
-        <v>205</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43">
-        <v>206</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44">
-        <v>207</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45">
-        <v>208</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46">
-        <v>209</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47">
-        <v>210</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48">
-        <v>211</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49">
-        <v>212</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50">
-        <v>213</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51">
-        <v>214</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52">
-        <v>215</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53">
-        <v>216</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54">
-        <v>217</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55">
-        <v>218</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>251</v>
-      </c>
-      <c r="B56">
-        <v>219</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57">
-        <v>220</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58">
-        <v>221</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59">
-        <v>222</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>255</v>
-      </c>
-      <c r="B60">
-        <v>223</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61">
-        <v>224</v>
-      </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>257</v>
-      </c>
-      <c r="B62">
-        <v>225</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63">
-        <v>226</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64">
-        <v>227</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65">
-        <v>301</v>
-      </c>
-      <c r="C65">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="15">
+        <v>33</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" s="9">
+        <v>404</v>
+      </c>
+      <c r="C70" s="9">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66">
-        <v>302</v>
-      </c>
-      <c r="C66">
+      <c r="D70" s="9">
+        <v>4</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="15">
+        <v>34</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="9">
+        <v>411</v>
+      </c>
+      <c r="C71" s="9">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67">
-        <v>303</v>
-      </c>
-      <c r="C67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67">
+      <c r="D71" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68">
-        <v>304</v>
-      </c>
-      <c r="C68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="15">
+        <v>35</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9">
         <v>4</v>
       </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1002</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9">
+        <v>4</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="L73" s="16"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1003</v>
+      </c>
+      <c r="C74" s="9">
+        <v>0</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C75" s="9">
+        <v>0</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="L75" s="16"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C76" s="9">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9">
+        <v>4</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C77" s="9">
+        <v>0</v>
+      </c>
+      <c r="D77" s="9">
+        <v>4</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="L77" s="16"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1007</v>
+      </c>
+      <c r="C78" s="9">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9">
+        <v>4</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="L78" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12273,18 +13987,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135">
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12901,6 +14615,310 @@
       </c>
       <c r="C58">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/数据总表以及说明.xlsx
+++ b/数据总表以及说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="410">
   <si>
     <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,26 +138,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加普攻次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|增加普攻的次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改变怒气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改变战斗属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|改变的区域（1自身，2同队，3敌队）|改变属性的额外条件(参考判断条件类型表)|(属性ID1,属性量1;属性ID2,属性量2…依次类推)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击计算伤害前触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,95 +150,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5|自身条件（参考判断条件类型表）|攻击者条件（参考判断条件类型表） - 该类触发器的效果只允许为 5，5类型的技能效果也只会被4，5类型触发器所引发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7|自身条件（参考判断条件类型表）|攻击者条件（参考判断条件类型表）|是否是怒气技能（0为都可以，1为必须要普攻，2为必须要怒攻）|是否是远程技能（0为都可以，1为近战，2为远程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被格挡时触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被暴击时触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9|自身条件（参考判断条件类型表）|攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击时触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>格挡时触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11|自身条件（参考判断条件类型表）|攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合行动前触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12|自身条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受到治疗时触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通攻击前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17|自身条件（参考判断条件类型表）  - 该类触发器的效果只允许为 6，6类型的技能效果也只会被该触发器触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怒气攻击前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|自身条件（参考判断条件类型表）  - 该类触发器的效果只允许为 7，7类型的技能效果也只会被该触发器触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量小于一定量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21|小于的血量百分比|每次战斗触发次数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率|改变发生的额外条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9|-30|30|10000|0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1033,18 +953,6 @@
   </si>
   <si>
     <t>触发器效果说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|伤害攻击力系数|伤害生命百分比系数|该伤害的自身额外条件(参考判断条件类型表)|该伤害的目标额外条件(参考判断条件类型表)|是否为贯通伤害（1,贯通 0非贯通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|状态ID|BUFF触发率（万分比）|触发状态的自身额外条件（参考判断条件类型表）|触发状态的目标额外条件（参考判断条件类型表）|状态的导入参数（与状态相关）|状态持续回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|治疗攻击力系数|治疗生命百分比系数|治疗的自身额外条件(参考判断条件类型表)|治疗的目标额外条件(参考判断条件类型表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1437,10 +1345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillTrigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能触发器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1469,19 +1373,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19|是否普攻杀死|每回合触发次数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自身死亡前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|每场战斗触发上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|触发次数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1578,19 +1470,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表） - 该类触发器的效果只允许为 5，5类型的技能效果也只会被4，5类型触发器所引发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|自身条件（参考判断条件类型表）|被攻击者条件（参考判断条件类型表）</t>
+    <t>1|伤害攻击力系数|伤害生命百分比系数|是否为贯通伤害（1,贯通 0非贯通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|治疗攻击力系数|治疗生命百分比系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|状态ID|BUFF触发率（万分比）|状态的导入参数（与状态相关）|状态持续回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器对象条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerCondition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerCondition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerRoundMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBattleMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考触发器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器触发时判断是否触发的自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器触发时判断是否触发的额外对象条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器每回合触发最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器每次战斗触发最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果目标条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1Cond2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2Cond2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect3Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect3Cond2</t>
+  </si>
+  <si>
+    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给目标产生光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|光环影响的区域（1自身，2同队，3敌队）|改变属性的额外条件(参考判断条件类型表)|(属性ID1,属性量1;属性ID2,属性量2…依次类推)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|增加行动的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加行动次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,31 +2022,31 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M1" s="3">
         <v>1</v>
@@ -2072,90 +2067,90 @@
         <v>0.1</v>
       </c>
       <c r="W1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="X1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="AA1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="AC1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AD1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="63" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -2181,7 +2176,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2270,7 +2265,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2358,7 +2353,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -2434,7 +2429,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -2510,7 +2505,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2586,7 +2581,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2652,7 +2647,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3">
         <v>11</v>
@@ -2718,7 +2713,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -2784,7 +2779,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
@@ -2850,7 +2845,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3">
         <v>12</v>
@@ -2916,7 +2911,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -2982,7 +2977,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -3048,7 +3043,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
@@ -3114,7 +3109,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
@@ -3180,7 +3175,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3">
         <v>21</v>
@@ -3246,7 +3241,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
         <v>21</v>
@@ -3312,7 +3307,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3">
         <v>22</v>
@@ -3378,7 +3373,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3">
         <v>22</v>
@@ -3444,7 +3439,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -3510,7 +3505,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
         <v>22</v>
@@ -3576,7 +3571,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3">
         <v>1001</v>
@@ -3642,7 +3637,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
         <v>1001</v>
@@ -3708,7 +3703,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
         <v>1002</v>
@@ -3774,7 +3769,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>1002</v>
@@ -3840,7 +3835,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3">
         <v>1002</v>
@@ -3906,7 +3901,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3">
         <v>1002</v>
@@ -3972,7 +3967,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
         <v>1011</v>
@@ -4038,7 +4033,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3">
         <v>1011</v>
@@ -4104,7 +4099,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
         <v>1011</v>
@@ -4170,7 +4165,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>1012</v>
@@ -4236,7 +4231,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B33" s="3">
         <v>1012</v>
@@ -4302,7 +4297,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3">
         <v>1012</v>
@@ -4368,7 +4363,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3">
         <v>1012</v>
@@ -4434,7 +4429,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3">
         <v>1021</v>
@@ -4500,7 +4495,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3">
         <v>1021</v>
@@ -4566,7 +4561,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
         <v>1021</v>
@@ -4632,7 +4627,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3">
         <v>1022</v>
@@ -4698,7 +4693,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3">
         <v>1022</v>
@@ -4764,7 +4759,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3">
         <v>1022</v>
@@ -4830,7 +4825,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3">
         <v>1022</v>
@@ -4896,7 +4891,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
         <v>2001</v>
@@ -4962,7 +4957,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3">
         <v>2001</v>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3">
         <v>2002</v>
@@ -5094,7 +5089,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3">
         <v>2002</v>
@@ -5160,7 +5155,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B47" s="3">
         <v>2002</v>
@@ -5226,7 +5221,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B48" s="3">
         <v>2002</v>
@@ -5292,7 +5287,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3">
         <v>2011</v>
@@ -5358,7 +5353,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3">
         <v>2011</v>
@@ -5424,7 +5419,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
         <v>2011</v>
@@ -5490,7 +5485,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B52" s="3">
         <v>2012</v>
@@ -5556,7 +5551,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3">
         <v>2012</v>
@@ -5622,7 +5617,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B54" s="3">
         <v>2012</v>
@@ -5688,7 +5683,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3">
         <v>2012</v>
@@ -5754,7 +5749,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>2021</v>
@@ -5820,7 +5815,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3">
         <v>2021</v>
@@ -5886,7 +5881,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3">
         <v>2021</v>
@@ -5952,7 +5947,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
         <v>2022</v>
@@ -6018,7 +6013,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3">
         <v>2022</v>
@@ -6084,7 +6079,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3">
         <v>2022</v>
@@ -6150,7 +6145,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3">
         <v>2022</v>
@@ -6216,7 +6211,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3">
         <v>3001</v>
@@ -6282,7 +6277,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B64" s="3">
         <v>3001</v>
@@ -6348,7 +6343,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B65" s="3">
         <v>3002</v>
@@ -6414,7 +6409,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3">
         <v>3002</v>
@@ -6480,7 +6475,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3">
         <v>3002</v>
@@ -6546,7 +6541,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3">
         <v>3002</v>
@@ -6612,7 +6607,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B69" s="3">
         <v>3011</v>
@@ -6678,7 +6673,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B70" s="3">
         <v>3011</v>
@@ -6744,7 +6739,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3">
         <v>3011</v>
@@ -6810,7 +6805,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3">
         <v>3012</v>
@@ -6876,7 +6871,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
         <v>3012</v>
@@ -6942,7 +6937,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3">
         <v>3012</v>
@@ -7008,7 +7003,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
         <v>3012</v>
@@ -7074,7 +7069,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B76" s="3">
         <v>3021</v>
@@ -7140,7 +7135,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B77" s="3">
         <v>3021</v>
@@ -7206,7 +7201,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B78" s="3">
         <v>3021</v>
@@ -7272,7 +7267,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3">
         <v>3022</v>
@@ -7338,7 +7333,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B80" s="3">
         <v>3022</v>
@@ -7404,7 +7399,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B81" s="3">
         <v>3022</v>
@@ -7470,7 +7465,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B82" s="3">
         <v>3022</v>
@@ -7536,7 +7531,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B83" s="3">
         <v>4001</v>
@@ -7602,7 +7597,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B84" s="3">
         <v>4001</v>
@@ -7668,7 +7663,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B85" s="3">
         <v>4002</v>
@@ -7734,7 +7729,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B86" s="3">
         <v>4002</v>
@@ -7800,7 +7795,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3">
         <v>4002</v>
@@ -7866,7 +7861,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3">
         <v>4002</v>
@@ -7932,7 +7927,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B89" s="3">
         <v>4011</v>
@@ -7998,7 +7993,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B90" s="3">
         <v>4011</v>
@@ -8064,7 +8059,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B91" s="3">
         <v>4011</v>
@@ -8130,7 +8125,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B92" s="3">
         <v>4012</v>
@@ -8196,7 +8191,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B93" s="3">
         <v>4012</v>
@@ -8262,7 +8257,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B94" s="3">
         <v>4012</v>
@@ -8328,7 +8323,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B95" s="3">
         <v>4012</v>
@@ -8394,7 +8389,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B96" s="3">
         <v>4021</v>
@@ -8460,7 +8455,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B97" s="3">
         <v>4021</v>
@@ -8526,7 +8521,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B98" s="3">
         <v>4021</v>
@@ -8592,7 +8587,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B99" s="3">
         <v>4022</v>
@@ -8658,7 +8653,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B100" s="3">
         <v>4022</v>
@@ -8724,7 +8719,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B101" s="3">
         <v>4022</v>
@@ -8790,7 +8785,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B102" s="3">
         <v>4022</v>
@@ -8856,7 +8851,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B103" s="3">
         <v>5001</v>
@@ -8922,7 +8917,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B104" s="3">
         <v>5001</v>
@@ -8988,7 +8983,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B105" s="3">
         <v>5002</v>
@@ -9054,7 +9049,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B106" s="3">
         <v>5002</v>
@@ -9120,7 +9115,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B107" s="3">
         <v>5002</v>
@@ -9186,7 +9181,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B108" s="3">
         <v>5002</v>
@@ -9252,7 +9247,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B109" s="3">
         <v>5011</v>
@@ -9318,7 +9313,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B110" s="3">
         <v>5011</v>
@@ -9384,7 +9379,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B111" s="3">
         <v>5011</v>
@@ -9450,7 +9445,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B112" s="3">
         <v>5012</v>
@@ -9516,7 +9511,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B113" s="3">
         <v>5012</v>
@@ -9582,7 +9577,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B114" s="3">
         <v>5012</v>
@@ -9648,7 +9643,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B115" s="3">
         <v>5012</v>
@@ -9714,7 +9709,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B116" s="3">
         <v>5021</v>
@@ -9780,7 +9775,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B117" s="3">
         <v>5021</v>
@@ -9846,7 +9841,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B118" s="3">
         <v>5021</v>
@@ -9912,7 +9907,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B119" s="3">
         <v>5022</v>
@@ -9978,7 +9973,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3">
         <v>5022</v>
@@ -10044,7 +10039,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B121" s="3">
         <v>5022</v>
@@ -10110,7 +10105,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B122" s="3">
         <v>5022</v>
@@ -10189,34 +10184,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="177.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10238,7 +10233,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10309,18 +10304,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10331,7 +10326,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10342,7 +10337,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10353,10 +10348,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10367,7 +10362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10378,7 +10373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -10389,7 +10384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -10400,364 +10395,295 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>354</v>
+      </c>
+      <c r="C27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>355</v>
+      </c>
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D30" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>362</v>
+      </c>
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>408</v>
-      </c>
-      <c r="D31" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>358</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>359</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>360</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>382</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D47" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
         <v>393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -10768,13 +10694,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10784,63 +10710,101 @@
     <col min="3" max="3" width="24.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.375" customWidth="1"/>
+    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:25">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>260</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -10849,76 +10813,122 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
+        <v>350</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>291</v>
+      <c r="M2" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="90">
+        <v>139</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="90">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>379</v>
+      </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -10926,31 +10936,33 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -10958,31 +10970,33 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="J5" s="3">
+        <v>2</v>
       </c>
       <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3">
         <v>21</v>
@@ -10990,31 +11004,33 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="J6" s="3">
+        <v>2</v>
       </c>
       <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3">
         <v>31</v>
@@ -11022,31 +11038,33 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="J7" s="3">
+        <v>2</v>
       </c>
       <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3">
         <v>41</v>
@@ -11054,31 +11072,33 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" s="3">
+        <v>2</v>
       </c>
       <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3">
         <v>51</v>
@@ -11086,31 +11106,33 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="J9" s="3">
+        <v>2</v>
       </c>
       <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3">
         <v>10001</v>
@@ -11118,34 +11140,36 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>2</v>
       </c>
       <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3">
         <v>11001</v>
@@ -11153,34 +11177,36 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
         <v>5</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>-1</v>
       </c>
-      <c r="L11" t="s">
-        <v>268</v>
-      </c>
-      <c r="M11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" t="s">
+        <v>245</v>
+      </c>
+      <c r="U11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3">
         <v>10021</v>
@@ -11188,34 +11214,36 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>161</v>
-      </c>
-      <c r="O12">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12">
         <v>110021</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B13" s="3">
         <v>110021</v>
@@ -11223,31 +11251,33 @@
       <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
       <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
         <v>-1</v>
       </c>
-      <c r="L13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3">
         <v>11001</v>
@@ -11255,31 +11285,33 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
       <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1</v>
       </c>
-      <c r="L14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3">
         <v>11011</v>
@@ -11287,31 +11319,33 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
         <v>7</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
         <v>9</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B16" s="3">
         <v>11021</v>
@@ -11319,34 +11353,36 @@
       <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y16">
         <v>111021</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:25">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3">
         <v>111021</v>
@@ -11354,31 +11390,33 @@
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>-1</v>
       </c>
-      <c r="L17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B18" s="3">
         <v>12001</v>
@@ -11386,31 +11424,33 @@
       <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3">
         <v>12011</v>
@@ -11418,34 +11458,36 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>161</v>
-      </c>
-      <c r="O19">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19">
         <v>112011</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:25">
       <c r="A20" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3">
         <v>112011</v>
@@ -11453,31 +11495,33 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1</v>
       </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3">
         <v>12021</v>
@@ -11485,31 +11529,33 @@
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3">
         <v>13001</v>
@@ -11517,34 +11563,36 @@
       <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>-1</v>
       </c>
-      <c r="L22" t="s">
-        <v>271</v>
-      </c>
-      <c r="M22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" t="s">
+        <v>248</v>
+      </c>
+      <c r="U22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3">
         <v>13011</v>
@@ -11552,31 +11600,33 @@
       <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
         <v>7</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
         <v>9</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>13021</v>
@@ -11584,31 +11634,33 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1</v>
       </c>
-      <c r="L24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3">
         <v>14001</v>
@@ -11616,31 +11668,33 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3">
         <v>14011</v>
@@ -11648,34 +11702,36 @@
       <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
-        <v>162</v>
-      </c>
-      <c r="M26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" t="s">
+        <v>143</v>
+      </c>
+      <c r="U26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3">
         <v>14021</v>
@@ -11683,34 +11739,36 @@
       <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
       <c r="J27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
-        <v>161</v>
-      </c>
-      <c r="M27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3">
         <v>15001</v>
@@ -11718,34 +11776,36 @@
       <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
-        <v>160</v>
-      </c>
-      <c r="M28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" t="s">
+        <v>141</v>
+      </c>
+      <c r="U28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3">
         <v>15011</v>
@@ -11753,31 +11813,33 @@
       <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
         <v>7</v>
       </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>9</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3">
         <v>15021</v>
@@ -11785,34 +11847,36 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
       <c r="J30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>161</v>
-      </c>
-      <c r="M30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" t="s">
+        <v>142</v>
+      </c>
+      <c r="U30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B31" s="3">
         <v>20001</v>
@@ -11821,36 +11885,38 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31" s="3">
+        <v>349</v>
+      </c>
+      <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
         <v>5</v>
       </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
         <v>-1</v>
       </c>
-      <c r="L31" t="s">
-        <v>375</v>
-      </c>
-      <c r="M31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" t="s">
+        <v>351</v>
+      </c>
+      <c r="U31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="3" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B32" s="3">
         <v>20002</v>
@@ -11858,29 +11924,31 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
         <v>6</v>
       </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1</v>
       </c>
-      <c r="L32" t="s">
-        <v>275</v>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -11895,7 +11963,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -11911,89 +11979,89 @@
     <row r="1" spans="1:12">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="168.75">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="14" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="15"/>
@@ -12003,13 +12071,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -12029,13 +12097,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -12055,13 +12123,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -12081,7 +12149,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -12103,13 +12171,13 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
@@ -12131,13 +12199,13 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B9" s="9">
         <v>6</v>
@@ -12159,13 +12227,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B10" s="9">
         <v>7</v>
@@ -12187,13 +12255,13 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B11" s="9">
         <v>101</v>
@@ -12219,7 +12287,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B12" s="9">
         <v>102</v>
@@ -12245,7 +12313,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B13" s="9">
         <v>103</v>
@@ -12271,7 +12339,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B14" s="9">
         <v>104</v>
@@ -12297,7 +12365,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B15" s="9">
         <v>105</v>
@@ -12323,7 +12391,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B16" s="9">
         <v>106</v>
@@ -12349,7 +12417,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B17" s="9">
         <v>107</v>
@@ -12375,7 +12443,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B18" s="9">
         <v>108</v>
@@ -12401,7 +12469,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B19" s="9">
         <v>109</v>
@@ -12427,7 +12495,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B20" s="9">
         <v>110</v>
@@ -12453,7 +12521,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B21" s="9">
         <v>111</v>
@@ -12479,7 +12547,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B22" s="9">
         <v>112</v>
@@ -12505,7 +12573,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B23" s="9">
         <v>113</v>
@@ -12531,7 +12599,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B24" s="9">
         <v>114</v>
@@ -12557,7 +12625,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B25" s="9">
         <v>115</v>
@@ -12583,7 +12651,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B26" s="9">
         <v>116</v>
@@ -12609,7 +12677,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B27" s="9">
         <v>117</v>
@@ -12635,7 +12703,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B28" s="9">
         <v>118</v>
@@ -12661,7 +12729,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B29" s="9">
         <v>119</v>
@@ -12687,7 +12755,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="9" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B30" s="9">
         <v>120</v>
@@ -12713,7 +12781,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="9" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B31" s="9">
         <v>121</v>
@@ -12739,7 +12807,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="9" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B32" s="9">
         <v>122</v>
@@ -12765,7 +12833,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B33" s="9">
         <v>123</v>
@@ -12791,7 +12859,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="9" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B34" s="9">
         <v>124</v>
@@ -12817,7 +12885,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B35" s="9">
         <v>125</v>
@@ -12843,7 +12911,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B36" s="9">
         <v>126</v>
@@ -12869,7 +12937,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B37" s="9">
         <v>127</v>
@@ -12895,7 +12963,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B38" s="9">
         <v>201</v>
@@ -12921,7 +12989,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B39" s="9">
         <v>202</v>
@@ -12947,7 +13015,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="9" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B40" s="9">
         <v>203</v>
@@ -12973,7 +13041,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="9" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B41" s="9">
         <v>204</v>
@@ -12999,7 +13067,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="9" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B42" s="9">
         <v>205</v>
@@ -13025,7 +13093,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B43" s="9">
         <v>206</v>
@@ -13051,7 +13119,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="9" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B44" s="9">
         <v>207</v>
@@ -13077,7 +13145,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="9" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B45" s="9">
         <v>208</v>
@@ -13103,7 +13171,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B46" s="9">
         <v>209</v>
@@ -13129,7 +13197,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B47" s="9">
         <v>210</v>
@@ -13155,7 +13223,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="9" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B48" s="9">
         <v>211</v>
@@ -13181,7 +13249,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="9" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B49" s="9">
         <v>212</v>
@@ -13207,7 +13275,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="9" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B50" s="9">
         <v>213</v>
@@ -13233,7 +13301,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="9" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B51" s="9">
         <v>214</v>
@@ -13259,7 +13327,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B52" s="9">
         <v>215</v>
@@ -13285,7 +13353,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="9" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B53" s="9">
         <v>216</v>
@@ -13311,7 +13379,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="9" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B54" s="9">
         <v>217</v>
@@ -13337,7 +13405,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="9" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B55" s="9">
         <v>218</v>
@@ -13363,7 +13431,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B56" s="9">
         <v>219</v>
@@ -13389,7 +13457,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="9" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B57" s="9">
         <v>220</v>
@@ -13415,7 +13483,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="9" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B58" s="9">
         <v>221</v>
@@ -13441,7 +13509,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="9" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B59" s="9">
         <v>222</v>
@@ -13467,7 +13535,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="9" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B60" s="9">
         <v>223</v>
@@ -13493,7 +13561,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="9" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B61" s="9">
         <v>224</v>
@@ -13519,7 +13587,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="9" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B62" s="9">
         <v>225</v>
@@ -13545,7 +13613,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="9" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B63" s="9">
         <v>226</v>
@@ -13571,7 +13639,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="9" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B64" s="9">
         <v>227</v>
@@ -13597,7 +13665,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="9" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B65" s="9">
         <v>301</v>
@@ -13618,14 +13686,14 @@
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B66" s="9">
         <v>302</v>
@@ -13646,14 +13714,14 @@
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B67" s="9">
         <v>401</v>
@@ -13679,7 +13747,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B68" s="9">
         <v>402</v>
@@ -13705,7 +13773,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B69" s="9">
         <v>403</v>
@@ -13725,7 +13793,7 @@
         <v>33</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
@@ -13733,7 +13801,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="9" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B70" s="9">
         <v>404</v>
@@ -13753,7 +13821,7 @@
         <v>34</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
@@ -13761,7 +13829,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B71" s="9">
         <v>411</v>
@@ -13781,7 +13849,7 @@
         <v>35</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -13789,7 +13857,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B72" s="9">
         <v>1001</v>
@@ -13809,13 +13877,13 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="L72" s="16"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="9" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B73" s="9">
         <v>1002</v>
@@ -13835,13 +13903,13 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="9" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B74" s="9">
         <v>1003</v>
@@ -13861,13 +13929,13 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="L74" s="16"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="9" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="B75" s="9">
         <v>1004</v>
@@ -13887,13 +13955,13 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L75" s="16"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="9" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="B76" s="9">
         <v>1005</v>
@@ -13913,13 +13981,13 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="L76" s="16"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="9" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B77" s="9">
         <v>1006</v>
@@ -13939,13 +14007,13 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="L77" s="16"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="9" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="B78" s="9">
         <v>1007</v>
@@ -13965,7 +14033,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="L78" s="16"/>
     </row>
@@ -13987,18 +14055,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135">
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14638,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14646,7 +14714,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14654,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14662,7 +14730,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -14670,7 +14738,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -14678,7 +14746,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14686,7 +14754,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -14694,7 +14762,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14702,7 +14770,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -14710,7 +14778,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -14718,7 +14786,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -14726,7 +14794,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -14734,7 +14802,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -14742,7 +14810,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -14750,7 +14818,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -14758,7 +14826,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -14766,7 +14834,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -14774,7 +14842,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -14782,7 +14850,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -14790,7 +14858,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -14798,7 +14866,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -14806,7 +14874,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -14814,7 +14882,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -14822,7 +14890,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -14830,7 +14898,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -14838,7 +14906,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -14846,7 +14914,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -14854,7 +14922,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -14862,7 +14930,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -14870,7 +14938,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -14878,7 +14946,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -14886,7 +14954,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -14894,7 +14962,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -14902,7 +14970,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -14910,7 +14978,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -14918,7 +14986,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/数据总表以及说明.xlsx
+++ b/数据总表以及说明.xlsx
@@ -11,8 +11,9 @@
     <sheet name="技能表相关说明" sheetId="5" r:id="rId2"/>
     <sheet name="技能表" sheetId="2" r:id="rId3"/>
     <sheet name="状态表" sheetId="6" r:id="rId4"/>
-    <sheet name="状态互斥表" sheetId="7" r:id="rId5"/>
+    <sheet name="状态互斥表&lt;暂时废弃&gt;" sheetId="7" r:id="rId5"/>
     <sheet name="属性表" sheetId="8" r:id="rId6"/>
+    <sheet name="等级表" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">角色表!$A$2:$U$122</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="451">
   <si>
     <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,29 +45,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,npcTID(NPC表格ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本方场上有某ID的角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,目标气势小于等于的数值</t>
-  </si>
-  <si>
     <t>单位怒气小于等于某数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,目标气势大于等于的数值</t>
-  </si>
-  <si>
     <t>单位怒气大于等于某数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,小于等于的百分比</t>
   </si>
   <si>
     <t>单位血量小于等于某百分比</t>
@@ -584,22 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|10000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|15000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|20000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|12000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,18 +589,6 @@
   </si>
   <si>
     <t>作用机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -956,42 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3|101|10000|0|0|5000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|123|10000|0|0|2000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|104|10000|0|0|5000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|124|10000|0|0|3000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|101|10000|0|0|3000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|302|10000|0|0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|1|10000|0|0|500|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|2|10000|0|0|1000|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|3|10000|0|0|800|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillAttr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1226,7 +1150,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1，伤害|状态伤害类型(技能参数为伤害技能系数）
+    <t>0为无限次
+大于0为有限次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次免疫增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次免疫负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封能免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗进场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身死亡前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方彻底死亡触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放普攻后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何攻击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何被攻击后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器绑定对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，大招命中者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，普攻命中者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，被攻击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，攻击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，触发格挡的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，触发暴击的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，被暴击伤害的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，伤害被格挡的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，敌方目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，治疗者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，默认位置
+2，后排
+3，血最少 
+4，随机
+5，强制自身
+6，触发器的另一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|伤害攻击力系数|伤害生命百分比系数|是否为贯通伤害（1,贯通 0非贯通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|治疗攻击力系数|治疗生命百分比系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|状态ID|BUFF触发率（万分比）|状态的导入参数（与状态相关）|状态持续回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器对象条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerCondition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerCondition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerRoundMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBattleMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考触发器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器触发时判断是否触发的自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器触发时判断是否触发的额外对象条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器每回合触发最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器每次战斗触发最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果自身条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果目标条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1Cond2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2Cond2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect3Cond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect3Cond2</t>
+  </si>
+  <si>
+    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|增加行动的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加行动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|10000|0|0</t>
+  </si>
+  <si>
+    <t>1|12000|0|0</t>
+  </si>
+  <si>
+    <t>3|101|10000|5000|2</t>
+  </si>
+  <si>
+    <t>1|15000|0|0</t>
+  </si>
+  <si>
+    <t>3|123|10000|2000|2</t>
+  </si>
+  <si>
+    <t>3|104|10000|5000|2</t>
+  </si>
+  <si>
+    <t>1|20000|0|0</t>
+  </si>
+  <si>
+    <t>3|124|10000|3000|2</t>
+  </si>
+  <si>
+    <t>3|302|10000|0|0</t>
+  </si>
+  <si>
+    <t>3|1001|10000|0|50</t>
+  </si>
+  <si>
+    <t>3|2|10000|1000|2</t>
+  </si>
+  <si>
+    <t>3|101|10000|3000|2</t>
+  </si>
+  <si>
+    <t>3|1|10000|500|6</t>
+  </si>
+  <si>
+    <t>3|3|10000|800|3</t>
+  </si>
+  <si>
+    <t>3|1003|10000|0|50</t>
+  </si>
+  <si>
+    <t>火焰反击（受击时让攻击者中点燃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米合金-锐（+免毒/流血，+护甲穿透）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米合金-钢（+免毒/流血，+护甲增益）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,10000,32,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR_HP_PERCENT_BONUS = 36 --HP提升率（用于装备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR_ATTACK_PERCENT_BONUS = 37 --攻击提升率（用于装备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR_DEFENCE_PERCENT_BONUS = 38 --防御提升率（用于装备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR_SKILL_DAMAGE_BONUS = 39 --技能伤害加成（用于控制小怪和Boss的数值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|10</t>
+  </si>
+  <si>
+    <t>5|11</t>
+  </si>
+  <si>
+    <t>5|12</t>
+  </si>
+  <si>
+    <t>5|13</t>
+  </si>
+  <si>
+    <t>5|14</t>
+  </si>
+  <si>
+    <t>5|15</t>
+  </si>
+  <si>
+    <t>5|16</t>
+  </si>
+  <si>
+    <t>5|17</t>
+  </si>
+  <si>
+    <t>5|18</t>
+  </si>
+  <si>
+    <t>5|19</t>
+  </si>
+  <si>
+    <t>5|20</t>
+  </si>
+  <si>
+    <t>5|21</t>
+  </si>
+  <si>
+    <t>5|22</t>
+  </si>
+  <si>
+    <t>5|23</t>
+  </si>
+  <si>
+    <t>5|24</t>
+  </si>
+  <si>
+    <t>5|25</t>
+  </si>
+  <si>
+    <t>5|26</t>
+  </si>
+  <si>
+    <t>5|27</t>
+  </si>
+  <si>
+    <t>5|28</t>
+  </si>
+  <si>
+    <t>5|29</t>
+  </si>
+  <si>
+    <t>5|30</t>
+  </si>
+  <si>
+    <t>5|31</t>
+  </si>
+  <si>
+    <t>5|32</t>
+  </si>
+  <si>
+    <t>5|33</t>
+  </si>
+  <si>
+    <t>5|34</t>
+  </si>
+  <si>
+    <t>5|35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1，伤害|状态伤害类型下标
+(技能参数为伤害技能系数）
 2，禁止普攻(技能参数无效）
 3，禁止怒攻(技能参数无效）
 4，禁止行动(技能参数无效）
@@ -1236,356 +1645,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0为无限次
-大于0为有限次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次免疫增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次免疫负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封能免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射火焰（受击时让攻击者中点燃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,10000|32,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能触发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|1001|10000|0|0|0|50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|1003|10000|0|0|0|50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳米合金（+免毒/流血+护甲穿透+护甲增益）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗进场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身死亡前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身彻底死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友彻底死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方彻底死亡触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放大招后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放普攻后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何攻击后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何被攻击后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器绑定对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，大招命中者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，普攻命中者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，被攻击的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，攻击的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，触发格挡的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，触发暴击的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，被暴击伤害的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，伤害被格挡的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，队友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，敌方目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身，治疗者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，默认位置
-2，后排
-3，血最少 
-4，随机
-5，强制自身
-6，触发器的另一个对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|伤害攻击力系数|伤害生命百分比系数|是否为贯通伤害（1,贯通 0非贯通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|治疗攻击力系数|治疗生命百分比系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|状态ID|BUFF触发率（万分比）|状态的导入参数（与状态相关）|状态持续回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器自身条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器对象条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerCondition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerCondition2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillTriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerRoundMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerBattleMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考触发器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器触发时判断是否触发的自身条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器触发时判断是否触发的额外对象条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器每回合触发最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器每次战斗触发最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果自身条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果目标条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect1Cond1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect1Cond2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect2Cond1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect2Cond2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect3Cond1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect3Cond2</t>
-  </si>
-  <si>
-    <t>9|目标改变的怒气值（可以为负）|自身改变的怒气值（可以为负）|改变的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给目标产生光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|光环影响的区域（1自身，2同队，3敌队）|改变属性的额外条件(参考判断条件类型表)|(属性ID1,属性量1;属性ID2,属性量2…依次类推)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|增加行动的次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加行动次数</t>
+    <t>1|33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升率系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位血量大于某百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,大于等于的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,小于等于的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,目标气势大于等于的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,目标气势小于等于的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,npcTID(NPC表格ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位为某种类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,单位的类型（单位type,1攻击,2防御,3技巧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位为某种阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,单位的阵营（单位camp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位血量小于某百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,小于的百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +2125,7 @@
   <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U122" sqref="A3:U122"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2022,31 +2150,31 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M1" s="3">
         <v>1</v>
@@ -2067,90 +2195,90 @@
         <v>0.1</v>
       </c>
       <c r="W1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="X1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AA1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AB1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="63" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="U2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -2176,7 +2304,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2265,7 +2393,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2353,7 +2481,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -2429,7 +2557,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -2505,7 +2633,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2581,7 +2709,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2647,7 +2775,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>11</v>
@@ -2713,7 +2841,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -2779,7 +2907,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
@@ -2845,7 +2973,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3">
         <v>12</v>
@@ -2911,7 +3039,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -2977,7 +3105,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -3043,7 +3171,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
@@ -3109,7 +3237,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
@@ -3175,7 +3303,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <v>21</v>
@@ -3241,7 +3369,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <v>21</v>
@@ -3307,7 +3435,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <v>22</v>
@@ -3373,7 +3501,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>22</v>
@@ -3439,7 +3567,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -3505,7 +3633,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3">
         <v>22</v>
@@ -3571,7 +3699,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3">
         <v>1001</v>
@@ -3637,7 +3765,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
         <v>1001</v>
@@ -3703,7 +3831,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3">
         <v>1002</v>
@@ -3769,7 +3897,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3">
         <v>1002</v>
@@ -3835,7 +3963,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
         <v>1002</v>
@@ -3901,7 +4029,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3">
         <v>1002</v>
@@ -3967,7 +4095,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3">
         <v>1011</v>
@@ -4033,7 +4161,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <v>1011</v>
@@ -4099,7 +4227,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3">
         <v>1011</v>
@@ -4165,7 +4293,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3">
         <v>1012</v>
@@ -4231,7 +4359,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
         <v>1012</v>
@@ -4297,7 +4425,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3">
         <v>1012</v>
@@ -4363,7 +4491,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3">
         <v>1012</v>
@@ -4429,7 +4557,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
         <v>1021</v>
@@ -4495,7 +4623,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3">
         <v>1021</v>
@@ -4561,7 +4689,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
         <v>1021</v>
@@ -4627,7 +4755,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="3">
         <v>1022</v>
@@ -4693,7 +4821,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B40" s="3">
         <v>1022</v>
@@ -4759,7 +4887,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3">
         <v>1022</v>
@@ -4825,7 +4953,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>1022</v>
@@ -4891,7 +5019,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>2001</v>
@@ -4957,7 +5085,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
         <v>2001</v>
@@ -5023,7 +5151,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B45" s="3">
         <v>2002</v>
@@ -5089,7 +5217,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B46" s="3">
         <v>2002</v>
@@ -5155,7 +5283,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3">
         <v>2002</v>
@@ -5221,7 +5349,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B48" s="3">
         <v>2002</v>
@@ -5287,7 +5415,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>2011</v>
@@ -5353,7 +5481,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>2011</v>
@@ -5419,7 +5547,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>2011</v>
@@ -5485,7 +5613,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3">
         <v>2012</v>
@@ -5551,7 +5679,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3">
         <v>2012</v>
@@ -5617,7 +5745,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
         <v>2012</v>
@@ -5683,7 +5811,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3">
         <v>2012</v>
@@ -5749,7 +5877,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3">
         <v>2021</v>
@@ -5815,7 +5943,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B57" s="3">
         <v>2021</v>
@@ -5881,7 +6009,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3">
         <v>2021</v>
@@ -5947,7 +6075,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>2022</v>
@@ -6013,7 +6141,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3">
         <v>2022</v>
@@ -6079,7 +6207,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
         <v>2022</v>
@@ -6145,7 +6273,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="3">
         <v>2022</v>
@@ -6211,7 +6339,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3">
         <v>3001</v>
@@ -6277,7 +6405,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B64" s="3">
         <v>3001</v>
@@ -6343,7 +6471,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3">
         <v>3002</v>
@@ -6409,7 +6537,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3">
         <v>3002</v>
@@ -6475,7 +6603,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
         <v>3002</v>
@@ -6541,7 +6669,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>3002</v>
@@ -6607,7 +6735,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" s="3">
         <v>3011</v>
@@ -6673,7 +6801,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>3011</v>
@@ -6739,7 +6867,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B71" s="3">
         <v>3011</v>
@@ -6805,7 +6933,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>3012</v>
@@ -6871,7 +6999,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3">
         <v>3012</v>
@@ -6937,7 +7065,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>3012</v>
@@ -7003,7 +7131,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3">
         <v>3012</v>
@@ -7069,7 +7197,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3">
         <v>3021</v>
@@ -7135,7 +7263,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <v>3021</v>
@@ -7201,7 +7329,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3">
         <v>3021</v>
@@ -7267,7 +7395,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B79" s="3">
         <v>3022</v>
@@ -7333,7 +7461,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3">
         <v>3022</v>
@@ -7399,7 +7527,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B81" s="3">
         <v>3022</v>
@@ -7465,7 +7593,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B82" s="3">
         <v>3022</v>
@@ -7531,7 +7659,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B83" s="3">
         <v>4001</v>
@@ -7597,7 +7725,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B84" s="3">
         <v>4001</v>
@@ -7663,7 +7791,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3">
         <v>4002</v>
@@ -7729,7 +7857,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B86" s="3">
         <v>4002</v>
@@ -7795,7 +7923,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B87" s="3">
         <v>4002</v>
@@ -7861,7 +7989,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B88" s="3">
         <v>4002</v>
@@ -7927,7 +8055,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B89" s="3">
         <v>4011</v>
@@ -7993,7 +8121,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B90" s="3">
         <v>4011</v>
@@ -8059,7 +8187,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B91" s="3">
         <v>4011</v>
@@ -8125,7 +8253,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B92" s="3">
         <v>4012</v>
@@ -8191,7 +8319,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3">
         <v>4012</v>
@@ -8257,7 +8385,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3">
         <v>4012</v>
@@ -8323,7 +8451,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B95" s="3">
         <v>4012</v>
@@ -8389,7 +8517,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B96" s="3">
         <v>4021</v>
@@ -8455,7 +8583,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B97" s="3">
         <v>4021</v>
@@ -8521,7 +8649,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B98" s="3">
         <v>4021</v>
@@ -8587,7 +8715,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B99" s="3">
         <v>4022</v>
@@ -8653,7 +8781,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B100" s="3">
         <v>4022</v>
@@ -8719,7 +8847,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B101" s="3">
         <v>4022</v>
@@ -8785,7 +8913,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B102" s="3">
         <v>4022</v>
@@ -8851,7 +8979,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B103" s="3">
         <v>5001</v>
@@ -8917,7 +9045,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B104" s="3">
         <v>5001</v>
@@ -8983,7 +9111,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B105" s="3">
         <v>5002</v>
@@ -9049,7 +9177,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B106" s="3">
         <v>5002</v>
@@ -9115,7 +9243,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B107" s="3">
         <v>5002</v>
@@ -9181,7 +9309,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3">
         <v>5002</v>
@@ -9247,7 +9375,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B109" s="3">
         <v>5011</v>
@@ -9313,7 +9441,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B110" s="3">
         <v>5011</v>
@@ -9379,7 +9507,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B111" s="3">
         <v>5011</v>
@@ -9445,7 +9573,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B112" s="3">
         <v>5012</v>
@@ -9511,7 +9639,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B113" s="3">
         <v>5012</v>
@@ -9577,7 +9705,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B114" s="3">
         <v>5012</v>
@@ -9643,7 +9771,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B115" s="3">
         <v>5012</v>
@@ -9709,7 +9837,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B116" s="3">
         <v>5021</v>
@@ -9775,7 +9903,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B117" s="3">
         <v>5021</v>
@@ -9841,7 +9969,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B118" s="3">
         <v>5021</v>
@@ -9907,7 +10035,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B119" s="3">
         <v>5022</v>
@@ -9973,7 +10101,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B120" s="3">
         <v>5022</v>
@@ -10039,7 +10167,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B121" s="3">
         <v>5022</v>
@@ -10105,7 +10233,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3">
         <v>5022</v>
@@ -10184,10 +10312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10200,18 +10328,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10219,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -10230,10 +10358,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10241,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10252,10 +10380,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10263,10 +10391,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10274,10 +10402,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10285,10 +10413,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10296,394 +10424,427 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>243</v>
+      <c r="C12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>237</v>
+      <c r="A13">
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>445</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>382</v>
+      <c r="A16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>4</v>
+      <c r="A17" t="s">
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>244</v>
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>240</v>
+      <c r="A26">
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>354</v>
-      </c>
-      <c r="C27" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C28" t="s">
-        <v>366</v>
+      <c r="A28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
-        <v>2</v>
+      <c r="A29" t="s">
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>356</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C48" t="s">
-        <v>383</v>
+      <c r="B51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -10694,13 +10855,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10721,8 +10882,9 @@
     <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.875" customWidth="1"/>
     <col min="18" max="18" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" customWidth="1"/>
-    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="16.375" customWidth="1"/>
     <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -10730,81 +10892,81 @@
     <row r="1" spans="1:25">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -10813,16 +10975,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -10836,82 +10998,82 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="90">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="12" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10923,12 +11085,12 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="11" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -10957,12 +11119,12 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -10991,12 +11153,12 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3">
         <v>21</v>
@@ -11025,12 +11187,12 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3">
         <v>31</v>
@@ -11059,12 +11221,12 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3">
         <v>41</v>
@@ -11093,12 +11255,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3">
         <v>51</v>
@@ -11127,12 +11289,12 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3">
         <v>10001</v>
@@ -11161,18 +11323,18 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="U10" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3">
-        <v>11001</v>
+        <v>10011</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -11198,15 +11360,15 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="U11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3">
         <v>10021</v>
@@ -11235,7 +11397,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="Y12">
         <v>110021</v>
@@ -11243,7 +11405,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3">
         <v>110021</v>
@@ -11272,12 +11434,12 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3">
         <v>11001</v>
@@ -11306,12 +11468,12 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3">
         <v>11011</v>
@@ -11340,12 +11502,12 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3">
         <v>11021</v>
@@ -11374,7 +11536,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="Y16">
         <v>111021</v>
@@ -11382,7 +11544,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3">
         <v>111021</v>
@@ -11411,12 +11573,12 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3">
         <v>12001</v>
@@ -11445,12 +11607,12 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
         <v>12011</v>
@@ -11479,7 +11641,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="Y19">
         <v>112011</v>
@@ -11487,7 +11649,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B20" s="3">
         <v>112011</v>
@@ -11516,12 +11678,12 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3">
         <v>12021</v>
@@ -11550,12 +11712,12 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3">
         <v>13001</v>
@@ -11584,15 +11746,15 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="U22" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B23" s="3">
         <v>13011</v>
@@ -11621,12 +11783,12 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3">
         <v>13021</v>
@@ -11655,12 +11817,12 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" t="s">
-        <v>250</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3">
         <v>14001</v>
@@ -11672,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>1</v>
@@ -11689,12 +11851,12 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3">
         <v>14011</v>
@@ -11706,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -11723,15 +11885,15 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="U26" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B27" s="3">
         <v>14021</v>
@@ -11743,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="3">
         <v>2</v>
@@ -11760,15 +11922,15 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="U27" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B28" s="3">
         <v>15001</v>
@@ -11780,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3">
         <v>1</v>
@@ -11797,15 +11959,15 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
       <c r="U28" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3">
         <v>15011</v>
@@ -11817,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
         <v>7</v>
@@ -11834,12 +11996,12 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" s="3">
         <v>15021</v>
@@ -11851,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="3">
         <v>3</v>
@@ -11868,15 +12030,15 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="U30" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="3" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="B31" s="3">
         <v>20001</v>
@@ -11885,7 +12047,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -11908,15 +12070,15 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="U31" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="3" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="B32" s="3">
         <v>20002</v>
@@ -11948,7 +12110,47 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" t="s">
-        <v>252</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" t="s">
+        <v>391</v>
+      </c>
+      <c r="U33" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -11963,10 +12165,10 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11979,89 +12181,89 @@
     <row r="1" spans="1:12">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="168.75">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="180">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="14" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="15"/>
@@ -12071,13 +12273,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -12097,13 +12299,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -12123,13 +12325,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -12149,7 +12351,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -12171,13 +12373,13 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
@@ -12199,13 +12401,13 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B9" s="9">
         <v>6</v>
@@ -12227,13 +12429,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B10" s="9">
         <v>7</v>
@@ -12255,19 +12457,19 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B11" s="9">
         <v>101</v>
       </c>
-      <c r="C11" s="9">
-        <v>5</v>
+      <c r="C11" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -12287,13 +12489,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B12" s="9">
         <v>102</v>
       </c>
-      <c r="C12" s="9">
-        <v>5</v>
+      <c r="C12" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -12313,13 +12515,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9">
         <v>103</v>
       </c>
-      <c r="C13" s="9">
-        <v>5</v>
+      <c r="C13" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -12339,13 +12541,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B14" s="9">
         <v>104</v>
       </c>
-      <c r="C14" s="9">
-        <v>5</v>
+      <c r="C14" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -12365,13 +12567,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B15" s="9">
         <v>105</v>
       </c>
-      <c r="C15" s="9">
-        <v>5</v>
+      <c r="C15" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -12391,13 +12593,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B16" s="9">
         <v>106</v>
       </c>
-      <c r="C16" s="9">
-        <v>5</v>
+      <c r="C16" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -12417,13 +12619,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B17" s="9">
         <v>107</v>
       </c>
-      <c r="C17" s="9">
-        <v>5</v>
+      <c r="C17" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -12443,13 +12645,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B18" s="9">
         <v>108</v>
       </c>
-      <c r="C18" s="9">
-        <v>5</v>
+      <c r="C18" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -12469,13 +12671,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B19" s="9">
         <v>109</v>
       </c>
-      <c r="C19" s="9">
-        <v>5</v>
+      <c r="C19" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -12495,13 +12697,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B20" s="9">
         <v>110</v>
       </c>
-      <c r="C20" s="9">
-        <v>5</v>
+      <c r="C20" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -12521,13 +12723,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B21" s="9">
         <v>111</v>
       </c>
-      <c r="C21" s="9">
-        <v>5</v>
+      <c r="C21" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -12547,13 +12749,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B22" s="9">
         <v>112</v>
       </c>
-      <c r="C22" s="9">
-        <v>5</v>
+      <c r="C22" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -12573,13 +12775,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B23" s="9">
         <v>113</v>
       </c>
-      <c r="C23" s="9">
-        <v>5</v>
+      <c r="C23" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -12599,13 +12801,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B24" s="9">
         <v>114</v>
       </c>
-      <c r="C24" s="9">
-        <v>5</v>
+      <c r="C24" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -12625,13 +12827,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B25" s="9">
         <v>115</v>
       </c>
-      <c r="C25" s="9">
-        <v>5</v>
+      <c r="C25" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -12651,13 +12853,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B26" s="9">
         <v>116</v>
       </c>
-      <c r="C26" s="9">
-        <v>5</v>
+      <c r="C26" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -12677,13 +12879,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B27" s="9">
         <v>117</v>
       </c>
-      <c r="C27" s="9">
-        <v>5</v>
+      <c r="C27" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -12703,13 +12905,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B28" s="9">
         <v>118</v>
       </c>
-      <c r="C28" s="9">
-        <v>5</v>
+      <c r="C28" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -12729,13 +12931,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B29" s="9">
         <v>119</v>
       </c>
-      <c r="C29" s="9">
-        <v>5</v>
+      <c r="C29" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -12755,13 +12957,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B30" s="9">
         <v>120</v>
       </c>
-      <c r="C30" s="9">
-        <v>5</v>
+      <c r="C30" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -12781,13 +12983,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B31" s="9">
         <v>121</v>
       </c>
-      <c r="C31" s="9">
-        <v>5</v>
+      <c r="C31" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -12807,13 +13009,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B32" s="9">
         <v>122</v>
       </c>
-      <c r="C32" s="9">
-        <v>5</v>
+      <c r="C32" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -12833,13 +13035,13 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B33" s="9">
         <v>123</v>
       </c>
-      <c r="C33" s="9">
-        <v>5</v>
+      <c r="C33" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
@@ -12859,13 +13061,13 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B34" s="9">
         <v>124</v>
       </c>
-      <c r="C34" s="9">
-        <v>5</v>
+      <c r="C34" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -12885,13 +13087,13 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B35" s="9">
         <v>125</v>
       </c>
-      <c r="C35" s="9">
-        <v>5</v>
+      <c r="C35" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="D35" s="9">
         <v>1</v>
@@ -12911,13 +13113,13 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B36" s="9">
         <v>126</v>
       </c>
-      <c r="C36" s="9">
-        <v>5</v>
+      <c r="C36" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -12937,13 +13139,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B37" s="9">
         <v>127</v>
       </c>
-      <c r="C37" s="9">
-        <v>5</v>
+      <c r="C37" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="D37" s="9">
         <v>1</v>
@@ -12963,13 +13165,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B38" s="9">
         <v>201</v>
       </c>
-      <c r="C38" s="9">
-        <v>5</v>
+      <c r="C38" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
@@ -12989,13 +13191,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B39" s="9">
         <v>202</v>
       </c>
-      <c r="C39" s="9">
-        <v>5</v>
+      <c r="C39" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
@@ -13015,13 +13217,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B40" s="9">
         <v>203</v>
       </c>
-      <c r="C40" s="9">
-        <v>5</v>
+      <c r="C40" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="D40" s="9">
         <v>2</v>
@@ -13041,13 +13243,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B41" s="9">
         <v>204</v>
       </c>
-      <c r="C41" s="9">
-        <v>5</v>
+      <c r="C41" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="D41" s="9">
         <v>2</v>
@@ -13067,13 +13269,13 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B42" s="9">
         <v>205</v>
       </c>
-      <c r="C42" s="9">
-        <v>5</v>
+      <c r="C42" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="D42" s="9">
         <v>2</v>
@@ -13093,13 +13295,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B43" s="9">
         <v>206</v>
       </c>
-      <c r="C43" s="9">
-        <v>5</v>
+      <c r="C43" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D43" s="9">
         <v>2</v>
@@ -13119,13 +13321,13 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B44" s="9">
         <v>207</v>
       </c>
-      <c r="C44" s="9">
-        <v>5</v>
+      <c r="C44" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="D44" s="9">
         <v>2</v>
@@ -13145,13 +13347,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B45" s="9">
         <v>208</v>
       </c>
-      <c r="C45" s="9">
-        <v>5</v>
+      <c r="C45" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="D45" s="9">
         <v>2</v>
@@ -13171,13 +13373,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B46" s="9">
         <v>209</v>
       </c>
-      <c r="C46" s="9">
-        <v>5</v>
+      <c r="C46" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="D46" s="9">
         <v>2</v>
@@ -13197,13 +13399,13 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B47" s="9">
         <v>210</v>
       </c>
-      <c r="C47" s="9">
-        <v>5</v>
+      <c r="C47" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="D47" s="9">
         <v>2</v>
@@ -13223,13 +13425,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B48" s="9">
         <v>211</v>
       </c>
-      <c r="C48" s="9">
-        <v>5</v>
+      <c r="C48" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="D48" s="9">
         <v>2</v>
@@ -13249,13 +13451,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B49" s="9">
         <v>212</v>
       </c>
-      <c r="C49" s="9">
-        <v>5</v>
+      <c r="C49" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="D49" s="9">
         <v>2</v>
@@ -13275,13 +13477,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B50" s="9">
         <v>213</v>
       </c>
-      <c r="C50" s="9">
-        <v>5</v>
+      <c r="C50" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="D50" s="9">
         <v>2</v>
@@ -13301,13 +13503,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B51" s="9">
         <v>214</v>
       </c>
-      <c r="C51" s="9">
-        <v>5</v>
+      <c r="C51" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="D51" s="9">
         <v>2</v>
@@ -13327,13 +13529,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B52" s="9">
         <v>215</v>
       </c>
-      <c r="C52" s="9">
-        <v>5</v>
+      <c r="C52" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="D52" s="9">
         <v>2</v>
@@ -13353,13 +13555,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B53" s="9">
         <v>216</v>
       </c>
-      <c r="C53" s="9">
-        <v>5</v>
+      <c r="C53" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="D53" s="9">
         <v>2</v>
@@ -13379,13 +13581,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B54" s="9">
         <v>217</v>
       </c>
-      <c r="C54" s="9">
-        <v>5</v>
+      <c r="C54" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="D54" s="9">
         <v>2</v>
@@ -13405,13 +13607,13 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B55" s="9">
         <v>218</v>
       </c>
-      <c r="C55" s="9">
-        <v>5</v>
+      <c r="C55" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="D55" s="9">
         <v>2</v>
@@ -13431,13 +13633,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B56" s="9">
         <v>219</v>
       </c>
-      <c r="C56" s="9">
-        <v>5</v>
+      <c r="C56" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="D56" s="9">
         <v>2</v>
@@ -13457,13 +13659,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B57" s="9">
         <v>220</v>
       </c>
-      <c r="C57" s="9">
-        <v>5</v>
+      <c r="C57" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="D57" s="9">
         <v>2</v>
@@ -13483,13 +13685,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B58" s="9">
         <v>221</v>
       </c>
-      <c r="C58" s="9">
-        <v>5</v>
+      <c r="C58" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="D58" s="9">
         <v>2</v>
@@ -13509,13 +13711,13 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B59" s="9">
         <v>222</v>
       </c>
-      <c r="C59" s="9">
-        <v>5</v>
+      <c r="C59" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="D59" s="9">
         <v>2</v>
@@ -13535,13 +13737,13 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B60" s="9">
         <v>223</v>
       </c>
-      <c r="C60" s="9">
-        <v>5</v>
+      <c r="C60" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="D60" s="9">
         <v>2</v>
@@ -13561,13 +13763,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B61" s="9">
         <v>224</v>
       </c>
-      <c r="C61" s="9">
-        <v>5</v>
+      <c r="C61" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="D61" s="9">
         <v>2</v>
@@ -13587,13 +13789,13 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B62" s="9">
         <v>225</v>
       </c>
-      <c r="C62" s="9">
-        <v>5</v>
+      <c r="C62" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="D62" s="9">
         <v>2</v>
@@ -13613,13 +13815,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B63" s="9">
         <v>226</v>
       </c>
-      <c r="C63" s="9">
-        <v>5</v>
+      <c r="C63" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="D63" s="9">
         <v>2</v>
@@ -13639,13 +13841,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B64" s="9">
         <v>227</v>
       </c>
-      <c r="C64" s="9">
-        <v>5</v>
+      <c r="C64" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="D64" s="9">
         <v>2</v>
@@ -13665,7 +13867,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B65" s="9">
         <v>301</v>
@@ -13686,14 +13888,14 @@
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B66" s="9">
         <v>302</v>
@@ -13714,14 +13916,14 @@
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B67" s="9">
         <v>401</v>
@@ -13747,7 +13949,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B68" s="9">
         <v>402</v>
@@ -13773,7 +13975,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B69" s="9">
         <v>403</v>
@@ -13793,7 +13995,7 @@
         <v>33</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
@@ -13801,7 +14003,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="9" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B70" s="9">
         <v>404</v>
@@ -13821,7 +14023,7 @@
         <v>34</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
@@ -13829,7 +14031,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B71" s="9">
         <v>411</v>
@@ -13849,7 +14051,7 @@
         <v>35</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -13857,7 +14059,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B72" s="9">
         <v>1001</v>
@@ -13877,13 +14079,13 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="L72" s="16"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="9" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B73" s="9">
         <v>1002</v>
@@ -13903,13 +14105,13 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="9" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B74" s="9">
         <v>1003</v>
@@ -13929,13 +14131,13 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L74" s="16"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="9" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B75" s="9">
         <v>1004</v>
@@ -13955,13 +14157,13 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="L75" s="16"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="9" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B76" s="9">
         <v>1005</v>
@@ -13981,13 +14183,13 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="L76" s="16"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="9" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B77" s="9">
         <v>1006</v>
@@ -14007,13 +14209,13 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="L77" s="16"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="9" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B78" s="9">
         <v>1007</v>
@@ -14033,7 +14235,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L78" s="16"/>
     </row>
@@ -14055,18 +14257,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135">
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14693,10 +14895,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14706,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14714,7 +14916,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14722,7 +14924,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14730,7 +14932,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -14738,7 +14940,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -14746,7 +14948,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14754,7 +14956,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -14762,7 +14964,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14770,7 +14972,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -14778,7 +14980,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -14786,7 +14988,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -14794,7 +14996,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -14802,7 +15004,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -14810,7 +15012,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -14818,7 +15020,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -14826,7 +15028,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -14834,7 +15036,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -14842,7 +15044,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -14850,7 +15052,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -14858,7 +15060,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -14866,7 +15068,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -14874,7 +15076,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -14882,7 +15084,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -14890,7 +15092,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -14898,7 +15100,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -14906,7 +15108,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -14914,7 +15116,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -14922,7 +15124,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -14930,7 +15132,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -14938,7 +15140,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -14946,7 +15148,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -14954,7 +15156,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -14962,7 +15164,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -14970,7 +15172,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -14978,7 +15180,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -14986,11 +15188,552 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>90</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3/B2</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>120</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C41" si="0">B4/B3</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>150</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>180</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>230</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2777777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>290</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>360</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2413793103448276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>450</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>560</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2444444444444445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>700</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>870</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2428571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.264367816091954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1700</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2142857142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2100</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2352941176470589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2700</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3300</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4200</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4700</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1190476190476191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5300</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1276595744680851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6000</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1320754716981132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>6800</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>7700</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1323529411764706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>8700</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1298701298701299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>9800</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1264367816091954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>11100</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1326530612244898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>12500</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1261261261261262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>14100</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>16000</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1347517730496455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>18000</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <v>20400</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9">
+        <v>23000</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1274509803921569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>26000</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1304347826086956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>27300</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>28700</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0512820512820513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>30100</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0487804878048781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>31700</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0531561461794019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>33200</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0473186119873816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>34900</v>
+      </c>
+      <c r="C41" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0512048192771084</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据总表以及说明.xlsx
+++ b/数据总表以及说明.xlsx
@@ -2,42 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="角色表" sheetId="1" r:id="rId1"/>
-    <sheet name="技能表相关说明" sheetId="5" r:id="rId2"/>
-    <sheet name="技能表" sheetId="2" r:id="rId3"/>
-    <sheet name="状态表" sheetId="6" r:id="rId4"/>
-    <sheet name="状态互斥表&lt;暂时废弃&gt;" sheetId="7" r:id="rId5"/>
-    <sheet name="属性表" sheetId="8" r:id="rId6"/>
-    <sheet name="玩家等级表" sheetId="9" r:id="rId7"/>
+    <sheet name="实际导表注意事项" sheetId="11" r:id="rId1"/>
+    <sheet name="角色表" sheetId="1" r:id="rId2"/>
+    <sheet name="技能表相关说明" sheetId="5" r:id="rId3"/>
+    <sheet name="技能表" sheetId="2" r:id="rId4"/>
+    <sheet name="状态表" sheetId="6" r:id="rId5"/>
+    <sheet name="状态互斥表&lt;暂时废弃&gt;" sheetId="7" r:id="rId6"/>
+    <sheet name="属性表" sheetId="8" r:id="rId7"/>
+    <sheet name="玩家等级表" sheetId="9" r:id="rId8"/>
+    <sheet name="装备表" sheetId="10" r:id="rId9"/>
+    <sheet name="关卡列表" sheetId="12" r:id="rId10"/>
+    <sheet name="NPC放置列表" sheetId="14" r:id="rId11"/>
+    <sheet name="团队技能" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">角色表!$A$2:$U$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色表!$A$2:$U$122</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="491">
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="589">
   <si>
     <t>目标敌我选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程/近战/特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,11 +372,6 @@
   </si>
   <si>
     <t>基础防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量成长率
-（百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1830,10 +1818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HitAnim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HitSound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1847,14 +1831,6 @@
   </si>
   <si>
     <t>释放中音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放中时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1877,6 +1853,407 @@
   </si>
   <si>
     <t>BulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTargetOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动目标坐标偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:X像素便宜，Y像素偏移
+针对近身攻击表现的技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹特效类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示的伤害拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitShowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中时显示伤害的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程/近战/特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每一段的比例权重系数
+比如填100,200,300那总权重就是600
+本次显示的伤害为=（总伤害-之前累计显示的伤害）*自身权重/（总权重-之前累计的权重），按下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否左右反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReverseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：默认
+1：反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹出现的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能子弹击中目标后根据该时间点列表播放伤害，如果只有0那就是子弹击中的时候播放1次完整然后，如果是多个时间则顺序对应拆分后的伤害
+单位为毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为无速度
+播放子弹后直接判定为击中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletShowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹关系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹目标的关系类型
+0：创建一个子弹
+1：每个目标创建一个子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">到指定时间出现子弹
+如果不是飞行子弹(子弹速度都会设置成0）则直接判定击中
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:没有子弹
+1:飞行子弹
+2:固定位置特效
+3:连线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放动画的总时间
+1次攻击需要总时间结束并且所有发射的子弹也击中目标，伤害全部产生才算结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c|s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备IID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器/衣服/饰品/鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>3,120</t>
+  </si>
+  <si>
+    <t>3,160</t>
+  </si>
+  <si>
+    <t>3,200</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>1,200</t>
+  </si>
+  <si>
+    <t>1,400</t>
+  </si>
+  <si>
+    <t>1,800</t>
+  </si>
+  <si>
+    <t>1,1200</t>
+  </si>
+  <si>
+    <t>1,1600</t>
+  </si>
+  <si>
+    <t>1,2000</t>
+  </si>
+  <si>
+    <t>3,3,1,30</t>
+  </si>
+  <si>
+    <t>3,6,1,60</t>
+  </si>
+  <si>
+    <t>3,12,1,120</t>
+  </si>
+  <si>
+    <t>3,24,1,240</t>
+  </si>
+  <si>
+    <t>3,36,1,360</t>
+  </si>
+  <si>
+    <t>3,48,1,480</t>
+  </si>
+  <si>
+    <t>3,60,1,600</t>
+  </si>
+  <si>
+    <t>3,3,4,6</t>
+  </si>
+  <si>
+    <t>3,6,4,12</t>
+  </si>
+  <si>
+    <t>3,12,4,24</t>
+  </si>
+  <si>
+    <t>3,24,4,48</t>
+  </si>
+  <si>
+    <t>3,36,4,72</t>
+  </si>
+  <si>
+    <t>3,48,4,96</t>
+  </si>
+  <si>
+    <t>3,60,4,120</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行为实际表的列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行为是客户端还是服务器的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行为中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四行为详细备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五行开始为正式数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列为备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列为索引（不再另外配置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有实际的表都以excel文件内的第一张表进行导表（不再另外配置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡地图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量成长率
+（百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxWaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Slot":1,"MonsterID":1,"Rank":1,"Level":1,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>[{"Slot":2,"MonsterID":1,"Rank":1,"Level":1,"EquipID":0},{"Slot":3,"MonsterID":1,"Rank":1,"Level":1,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>[{"Slot":2,"MonsterID":11,"Rank":1,"Level":1,"EquipID":0},{"Slot":5,"MonsterID":11,"Rank":1,"Level":1,"EquipID":0},{"Slot":8,"MonsterID":11,"Rank":1,"Level":1,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>[{"Slot":1,"MonsterID":11,"Rank":1,"Level":2,"EquipID":0},{"Slot":3,"MonsterID":11,"Rank":1,"Level":2,"EquipID":0},{"Slot":7,"MonsterID":1,"Rank":1,"Level":2,"EquipID":0},{"Slot":9,"MonsterID":1,"Rank":1,"Level":2,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>[{"Slot":2,"MonsterID":21,"Rank":1,"Level":2,"EquipID":0},{"Slot":4,"MonsterID":21,"Rank":1,"Level":2,"EquipID":0},{"Slot":6,"MonsterID":21,"Rank":1,"Level":2,"EquipID":0},{"Slot":7,"MonsterID":1,"Rank":1,"Level":2,"EquipID":0},{"Slot":8,"MonsterID":1,"Rank":1,"Level":2,"EquipID":0},{"Slot":9,"MonsterID":1,"Rank":1,"Level":2,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>[{"Slot":1,"MonsterID":22,"Rank":1,"Level":6,"EquipID":0},{"Slot":2,"MonsterID":21,"Rank":1,"Level":3,"EquipID":0},{"Slot":3,"MonsterID":21,"Rank":1,"Level":3,"EquipID":0}]</t>
+  </si>
+  <si>
+    <t>Waves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MosterList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcSkillAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendSupport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCondtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGroundSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MosterList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcSupportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeUpWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendSupportMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCardMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MosterList3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1939,7 +2316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,6 +2367,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2285,10 +2665,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.375" style="2" customWidth="1"/>
+    <col min="4" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="U63" sqref="A63:XFD82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2313,31 +3140,31 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="M1" s="2">
         <v>1</v>
@@ -2358,90 +3185,90 @@
         <v>0.1</v>
       </c>
       <c r="W1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AA1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AC1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AD1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -2467,7 +3294,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2555,7 +3382,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2642,7 +3469,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2717,7 +3544,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2792,7 +3619,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -2867,7 +3694,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -2932,7 +3759,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>11</v>
@@ -2997,7 +3824,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>11</v>
@@ -3062,7 +3889,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>11</v>
@@ -3127,7 +3954,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>12</v>
@@ -3192,7 +4019,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -3257,7 +4084,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -3322,7 +4149,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
@@ -3387,7 +4214,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>21</v>
@@ -3452,7 +4279,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>21</v>
@@ -3517,7 +4344,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>21</v>
@@ -3582,7 +4409,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>22</v>
@@ -3647,7 +4474,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>22</v>
@@ -3712,7 +4539,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>22</v>
@@ -3777,7 +4604,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
@@ -3842,7 +4669,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>1001</v>
@@ -3907,7 +4734,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>1001</v>
@@ -3972,7 +4799,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>1002</v>
@@ -4037,7 +4864,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>1002</v>
@@ -4102,7 +4929,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>1002</v>
@@ -4167,7 +4994,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>1002</v>
@@ -4232,7 +5059,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>1011</v>
@@ -4297,7 +5124,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>1011</v>
@@ -4362,7 +5189,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>1011</v>
@@ -4427,7 +5254,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
         <v>1012</v>
@@ -4492,7 +5319,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
         <v>1012</v>
@@ -4557,7 +5384,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
         <v>1012</v>
@@ -4622,7 +5449,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
         <v>1012</v>
@@ -4687,7 +5514,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>1021</v>
@@ -4752,7 +5579,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2">
         <v>1021</v>
@@ -4817,7 +5644,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>1021</v>
@@ -4882,7 +5709,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
         <v>1022</v>
@@ -4947,7 +5774,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>1022</v>
@@ -5012,7 +5839,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>1022</v>
@@ -5077,7 +5904,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>1022</v>
@@ -5142,7 +5969,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2">
         <v>2001</v>
@@ -5207,7 +6034,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2">
         <v>2001</v>
@@ -5272,7 +6099,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>2002</v>
@@ -5337,7 +6164,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>2002</v>
@@ -5402,7 +6229,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
         <v>2002</v>
@@ -5467,7 +6294,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>2002</v>
@@ -5532,7 +6359,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2">
         <v>2011</v>
@@ -5597,7 +6424,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2">
         <v>2011</v>
@@ -5662,7 +6489,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" s="2">
         <v>2011</v>
@@ -5727,7 +6554,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>2012</v>
@@ -5792,7 +6619,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>2012</v>
@@ -5857,7 +6684,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>2012</v>
@@ -5922,7 +6749,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>2012</v>
@@ -5987,7 +6814,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2">
         <v>2021</v>
@@ -6052,7 +6879,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B57" s="2">
         <v>2021</v>
@@ -6117,7 +6944,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58" s="2">
         <v>2021</v>
@@ -6182,7 +7009,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2">
         <v>2022</v>
@@ -6247,7 +7074,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2">
         <v>2022</v>
@@ -6312,7 +7139,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
         <v>2022</v>
@@ -6377,7 +7204,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
         <v>2022</v>
@@ -6442,7 +7269,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B63" s="2">
         <v>3001</v>
@@ -6507,7 +7334,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B64" s="2">
         <v>3001</v>
@@ -6572,7 +7399,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2">
         <v>3002</v>
@@ -6637,7 +7464,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
         <v>3002</v>
@@ -6702,7 +7529,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2">
         <v>3002</v>
@@ -6767,7 +7594,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2">
         <v>3002</v>
@@ -6832,7 +7659,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2">
         <v>3011</v>
@@ -6897,7 +7724,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2">
         <v>3011</v>
@@ -6962,7 +7789,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2">
         <v>3011</v>
@@ -7027,7 +7854,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B72" s="2">
         <v>3012</v>
@@ -7092,7 +7919,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B73" s="2">
         <v>3012</v>
@@ -7157,7 +7984,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B74" s="2">
         <v>3012</v>
@@ -7222,7 +8049,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B75" s="2">
         <v>3012</v>
@@ -7287,7 +8114,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B76" s="2">
         <v>3021</v>
@@ -7352,7 +8179,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B77" s="2">
         <v>3021</v>
@@ -7417,7 +8244,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B78" s="2">
         <v>3021</v>
@@ -7482,7 +8309,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B79" s="2">
         <v>3022</v>
@@ -7547,7 +8374,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2">
         <v>3022</v>
@@ -7612,7 +8439,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B81" s="2">
         <v>3022</v>
@@ -7677,7 +8504,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B82" s="2">
         <v>3022</v>
@@ -7742,7 +8569,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B83" s="2">
         <v>4001</v>
@@ -7807,7 +8634,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B84" s="2">
         <v>4001</v>
@@ -7872,7 +8699,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B85" s="2">
         <v>4002</v>
@@ -7937,7 +8764,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B86" s="2">
         <v>4002</v>
@@ -8002,7 +8829,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B87" s="2">
         <v>4002</v>
@@ -8067,7 +8894,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B88" s="2">
         <v>4002</v>
@@ -8132,7 +8959,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B89" s="2">
         <v>4011</v>
@@ -8197,7 +9024,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B90" s="2">
         <v>4011</v>
@@ -8262,7 +9089,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B91" s="2">
         <v>4011</v>
@@ -8327,7 +9154,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B92" s="2">
         <v>4012</v>
@@ -8392,7 +9219,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B93" s="2">
         <v>4012</v>
@@ -8457,7 +9284,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B94" s="2">
         <v>4012</v>
@@ -8522,7 +9349,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B95" s="2">
         <v>4012</v>
@@ -8587,7 +9414,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B96" s="2">
         <v>4021</v>
@@ -8652,7 +9479,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B97" s="2">
         <v>4021</v>
@@ -8717,7 +9544,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B98" s="2">
         <v>4021</v>
@@ -8782,7 +9609,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B99" s="2">
         <v>4022</v>
@@ -8847,7 +9674,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B100" s="2">
         <v>4022</v>
@@ -8912,7 +9739,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B101" s="2">
         <v>4022</v>
@@ -8977,7 +9804,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B102" s="2">
         <v>4022</v>
@@ -9042,7 +9869,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2">
         <v>5001</v>
@@ -9107,7 +9934,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B104" s="2">
         <v>5001</v>
@@ -9172,7 +9999,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B105" s="2">
         <v>5002</v>
@@ -9237,7 +10064,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B106" s="2">
         <v>5002</v>
@@ -9302,7 +10129,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B107" s="2">
         <v>5002</v>
@@ -9367,7 +10194,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B108" s="2">
         <v>5002</v>
@@ -9432,7 +10259,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B109" s="2">
         <v>5011</v>
@@ -9497,7 +10324,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B110" s="2">
         <v>5011</v>
@@ -9562,7 +10389,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111" s="2">
         <v>5011</v>
@@ -9627,7 +10454,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B112" s="2">
         <v>5012</v>
@@ -9692,7 +10519,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B113" s="2">
         <v>5012</v>
@@ -9757,7 +10584,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B114" s="2">
         <v>5012</v>
@@ -9822,7 +10649,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B115" s="2">
         <v>5012</v>
@@ -9887,7 +10714,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B116" s="2">
         <v>5021</v>
@@ -9952,7 +10779,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B117" s="2">
         <v>5021</v>
@@ -10017,7 +10844,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B118" s="2">
         <v>5021</v>
@@ -10082,7 +10909,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B119" s="2">
         <v>5022</v>
@@ -10147,7 +10974,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B120" s="2">
         <v>5022</v>
@@ -10212,7 +11039,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B121" s="2">
         <v>5022</v>
@@ -10277,7 +11104,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B122" s="2">
         <v>5022</v>
@@ -10353,8 +11180,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -10371,18 +11199,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10390,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16">
         <v>0</v>
@@ -10401,10 +11229,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10412,10 +11240,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10423,10 +11251,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10434,10 +11262,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10445,10 +11273,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10456,10 +11284,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10467,10 +11295,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10478,10 +11306,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10489,10 +11317,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10500,10 +11328,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10511,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10522,10 +11350,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10533,10 +11361,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10544,10 +11372,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10555,10 +11383,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10566,26 +11394,26 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10593,10 +11421,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10604,10 +11432,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10615,10 +11443,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10626,10 +11454,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10637,10 +11465,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10648,10 +11476,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10659,10 +11487,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10670,10 +11498,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10681,10 +11509,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10692,26 +11520,26 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10719,10 +11547,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10730,10 +11558,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10741,10 +11569,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10752,10 +11580,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10763,10 +11591,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10774,10 +11602,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10785,10 +11613,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10796,10 +11624,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10807,10 +11635,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10818,10 +11646,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10829,10 +11657,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10840,10 +11668,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10851,10 +11679,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10862,10 +11690,10 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10873,10 +11701,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10884,10 +11712,10 @@
         <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10895,10 +11723,10 @@
         <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10906,10 +11734,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10917,10 +11745,10 @@
         <v>18</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10928,10 +11756,10 @@
         <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10939,10 +11767,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10950,10 +11778,10 @@
         <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -10963,1809 +11791,1945 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH39"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.375" customWidth="1"/>
-    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="22.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.375" style="9" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="9"/>
+    <col min="26" max="26" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.875" style="9" customWidth="1"/>
+    <col min="29" max="29" width="9" style="9"/>
+    <col min="30" max="30" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="9"/>
+    <col min="32" max="33" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.875" style="9" customWidth="1"/>
+    <col min="35" max="37" width="9" style="9"/>
+    <col min="38" max="38" width="13.875" style="9" customWidth="1"/>
+    <col min="39" max="39" width="18.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:41">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="112.5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="8" t="s">
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="17">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="17">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="17">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="17">
+        <v>41</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="17">
+        <v>51</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="U11" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10011</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="U12" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="17">
+        <v>10021</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>3</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="Y13" s="9">
+        <v>110021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="17">
+        <v>110021</v>
+      </c>
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="90">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>3</v>
+      </c>
+      <c r="O14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="17">
+        <v>11001</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3</v>
+      </c>
+      <c r="O15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="17">
+        <v>11011</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="17">
+        <v>11021</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>111021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="17">
+        <v>111021</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="17">
+        <v>12001</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>3</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9">
+        <v>3</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="17">
+        <v>12011</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>3</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>112011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="17">
+        <v>112011</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
+        <v>5</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="17">
+        <v>12021</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="17">
+        <v>13001</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>5</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="17">
+        <v>13011</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9">
+        <v>7</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
+        <v>9</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="17">
+        <v>13021</v>
+      </c>
+      <c r="C25" s="17">
+        <v>2</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>5</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="17">
+        <v>14001</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="17">
+        <v>14011</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>2</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="17">
+        <v>14021</v>
+      </c>
+      <c r="C28" s="17">
+        <v>2</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>2</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="9">
+        <v>3</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="17">
+        <v>15001</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="U29" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="10" t="s">
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="17">
+        <v>15011</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9">
+        <v>7</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
+        <v>9</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="17">
+        <v>15021</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2</v>
+      </c>
+      <c r="L31" s="9">
+        <v>3</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>3</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>5</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="17">
+        <v>20002</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17">
+        <v>7</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>6</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="17">
+        <v>20003</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9">
+        <v>5</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B35" s="17">
+        <v>20004</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="E35" s="17">
+        <v>21</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>5</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="11" t="s">
+      <c r="B36" s="17">
+        <v>20005</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+      <c r="E36" s="17">
+        <v>14</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>5</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="17">
+        <v>20006</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+      <c r="E37" s="17">
+        <v>15</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>5</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="17">
+        <v>20007</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+      <c r="E38" s="17">
+        <v>10</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <v>5</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B39" s="17">
+        <v>20008</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+      <c r="E39" s="17">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s">
-        <v>337</v>
-      </c>
-      <c r="U10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10011</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="N39" s="9">
+        <v>1</v>
+      </c>
+      <c r="O39" s="9">
         <v>-1</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s">
-        <v>338</v>
-      </c>
-      <c r="U11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10021</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>3</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y12">
-        <v>110021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="2">
-        <v>110021</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="R39" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40" s="17">
+        <v>20009</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
+      </c>
+      <c r="O40" s="9">
         <v>-1</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="2">
-        <v>11001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="2">
-        <v>11011</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>7</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>9</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="2">
-        <v>11021</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y16">
-        <v>111021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="2">
-        <v>111021</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>3</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="2">
-        <v>12001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>3</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="2">
-        <v>12011</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>3</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y19">
-        <v>112011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="2">
-        <v>112011</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>5</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12021</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="2">
-        <v>13001</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s">
-        <v>343</v>
-      </c>
-      <c r="U22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="2">
-        <v>13011</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2">
-        <v>7</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
-        <v>9</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="2">
-        <v>13021</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2">
-        <v>14011</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s">
-        <v>342</v>
-      </c>
-      <c r="U26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="2">
-        <v>14021</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2</v>
-      </c>
-      <c r="L27" s="2">
-        <v>2</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>3</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s">
-        <v>339</v>
-      </c>
-      <c r="U27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="2">
-        <v>15001</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s">
-        <v>336</v>
-      </c>
-      <c r="U28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="2">
-        <v>15011</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>7</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2">
-        <v>9</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="2">
-        <v>15021</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2">
-        <v>3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s">
-        <v>339</v>
-      </c>
-      <c r="U30" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B31" s="2">
-        <v>20001</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>5</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s">
-        <v>345</v>
-      </c>
-      <c r="U31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" s="2">
-        <v>20002</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>6</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" s="2">
-        <v>20003</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>5</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s">
-        <v>345</v>
-      </c>
-      <c r="U33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B34" s="2">
-        <v>20004</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>5</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s">
+      <c r="R40" s="9" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B35" s="2">
-        <v>20005</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>5</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B36" s="2">
-        <v>20006</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2">
-        <v>15</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>5</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B37" s="2">
-        <v>20007</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>5</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="2">
-        <v>20008</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>5</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B39" s="2">
-        <v>20009</v>
-      </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -12775,8 +13739,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12796,89 +13761,89 @@
     <row r="1" spans="1:12">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="180">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="14"/>
@@ -12888,13 +13853,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -12914,13 +13879,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -12940,13 +13905,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
@@ -12966,7 +13931,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -12988,13 +13953,13 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -13016,13 +13981,13 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
@@ -13044,13 +14009,13 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="8">
         <v>7</v>
@@ -13072,19 +14037,19 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B11" s="8">
         <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -13104,13 +14069,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B12" s="8">
         <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -13130,13 +14095,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B13" s="8">
         <v>103</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -13156,13 +14121,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B14" s="8">
         <v>104</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -13182,13 +14147,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B15" s="8">
         <v>105</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -13208,13 +14173,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" s="8">
         <v>106</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -13234,13 +14199,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" s="8">
         <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -13260,13 +14225,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="8">
         <v>108</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -13286,13 +14251,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="8">
         <v>109</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -13312,13 +14277,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B20" s="8">
         <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -13338,13 +14303,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B21" s="8">
         <v>111</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -13364,13 +14329,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B22" s="8">
         <v>112</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -13390,13 +14355,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B23" s="8">
         <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -13416,13 +14381,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B24" s="8">
         <v>114</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -13442,13 +14407,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B25" s="8">
         <v>115</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -13468,13 +14433,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B26" s="8">
         <v>116</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -13494,13 +14459,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27" s="8">
         <v>117</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -13520,13 +14485,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" s="8">
         <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -13546,13 +14511,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B29" s="8">
         <v>119</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -13572,13 +14537,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B30" s="8">
         <v>120</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -13598,13 +14563,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B31" s="8">
         <v>121</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -13624,13 +14589,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B32" s="8">
         <v>122</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -13650,13 +14615,13 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B33" s="8">
         <v>123</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -13676,13 +14641,13 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B34" s="8">
         <v>124</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -13702,13 +14667,13 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B35" s="8">
         <v>125</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -13728,13 +14693,13 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B36" s="8">
         <v>126</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -13754,13 +14719,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B37" s="8">
         <v>127</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -13780,13 +14745,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B38" s="8">
         <v>201</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -13806,13 +14771,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B39" s="8">
         <v>202</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
@@ -13832,13 +14797,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B40" s="8">
         <v>203</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
@@ -13858,13 +14823,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B41" s="8">
         <v>204</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
@@ -13884,13 +14849,13 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B42" s="8">
         <v>205</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
@@ -13910,13 +14875,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B43" s="8">
         <v>206</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
@@ -13936,13 +14901,13 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B44" s="8">
         <v>207</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
@@ -13962,13 +14927,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B45" s="8">
         <v>208</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
@@ -13988,13 +14953,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B46" s="8">
         <v>209</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
@@ -14014,13 +14979,13 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B47" s="8">
         <v>210</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
@@ -14040,13 +15005,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B48" s="8">
         <v>211</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
@@ -14066,13 +15031,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B49" s="8">
         <v>212</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
@@ -14092,13 +15057,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B50" s="8">
         <v>213</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
@@ -14118,13 +15083,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B51" s="8">
         <v>214</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
@@ -14144,13 +15109,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" s="8">
         <v>215</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
@@ -14170,13 +15135,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B53" s="8">
         <v>216</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
@@ -14196,13 +15161,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" s="8">
         <v>217</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
@@ -14222,13 +15187,13 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B55" s="8">
         <v>218</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -14248,13 +15213,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B56" s="8">
         <v>219</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -14274,13 +15239,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B57" s="8">
         <v>220</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -14300,13 +15265,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B58" s="8">
         <v>221</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
@@ -14326,13 +15291,13 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B59" s="8">
         <v>222</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -14352,13 +15317,13 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" s="8">
         <v>223</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -14378,13 +15343,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B61" s="8">
         <v>224</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -14404,13 +15369,13 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B62" s="8">
         <v>225</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -14430,13 +15395,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B63" s="8">
         <v>226</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
@@ -14456,13 +15421,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B64" s="8">
         <v>227</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D64" s="8">
         <v>2</v>
@@ -14482,7 +15447,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B65" s="8">
         <v>301</v>
@@ -14503,14 +15468,14 @@
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B66" s="8">
         <v>302</v>
@@ -14531,14 +15496,14 @@
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B67" s="8">
         <v>401</v>
@@ -14564,7 +15529,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B68" s="8">
         <v>402</v>
@@ -14590,7 +15555,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B69" s="8">
         <v>403</v>
@@ -14610,7 +15575,7 @@
         <v>33</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -14618,7 +15583,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B70" s="8">
         <v>404</v>
@@ -14638,7 +15603,7 @@
         <v>34</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -14646,7 +15611,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B71" s="8">
         <v>411</v>
@@ -14666,7 +15631,7 @@
         <v>35</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -14674,7 +15639,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B72" s="8">
         <v>1001</v>
@@ -14694,13 +15659,13 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L72" s="15"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B73" s="8">
         <v>1002</v>
@@ -14720,13 +15685,13 @@
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L73" s="15"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B74" s="8">
         <v>1003</v>
@@ -14746,13 +15711,13 @@
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L74" s="15"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B75" s="8">
         <v>1004</v>
@@ -14772,13 +15737,13 @@
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L75" s="15"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B76" s="8">
         <v>1005</v>
@@ -14798,13 +15763,13 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L76" s="15"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B77" s="8">
         <v>1006</v>
@@ -14824,13 +15789,13 @@
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L77" s="15"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B78" s="8">
         <v>1007</v>
@@ -14850,7 +15815,7 @@
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L78" s="15"/>
     </row>
@@ -14860,8 +15825,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14872,18 +15838,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135">
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15500,342 +16466,6 @@
       </c>
       <c r="C58">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -15846,6 +16476,344 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15861,13 +16829,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16351,4 +17319,406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4">
+        <f>INT(MOD(A4,10000)/1000)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B31" si="0">INT(MOD(A5,10000)/1000)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11001</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11002</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11003</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11004</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>11005</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>11006</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11007</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f>A11+1000</f>
+        <v>12001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" ref="A19:A31" si="1">A12+1000</f>
+        <v>12002</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>12003</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>12004</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>12005</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>12006</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>12007</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>13001</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>13002</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>13003</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>13004</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>13005</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>13006</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>13007</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>